--- a/text-resources/Sindhi/Topic of interest.xlsx
+++ b/text-resources/Sindhi/Topic of interest.xlsx
@@ -5748,7 +5748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>195.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>196.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>197.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>198.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>199.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>200.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>201.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>202.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>203.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>204.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>205.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>206.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>207.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>208.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>209.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>210.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>35</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>211.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>212.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>213.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>214.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>43</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>215.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>46</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>216.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>217.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>218.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>52</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>219.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>54</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>220.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>221.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>58</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>222.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>60</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>223.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>224.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>64</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>225.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>226.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>68</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>227.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>228.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>229.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>74</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>230.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>231.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>78</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>232.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>80</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>233.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>82</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>234.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>235.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>236.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>237.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>238.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>239.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>95</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>240.0</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>241.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>242.0</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>243.0</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>103</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>244.0</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>105</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>245.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>107</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>246.0</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
@@ -6476,7 +6476,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>247.0</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>111</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>248.0</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>113</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>249.0</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>250.0</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>117</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>251.0</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>119</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>252.0</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>121</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>253.0</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>124</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>254.0</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>126</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>255.0</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>128</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>256.0</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>130</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>257.0</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>132</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>258.0</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>134</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>259.0</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>136</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>260.0</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>138</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>261.0</v>
+        <v>67.0</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>140</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>262.0</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>142</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>263.0</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>144</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>264.0</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>146</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>265.0</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>148</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>266.0</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>150</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>267.0</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>152</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>268.0</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>154</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>269.0</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>156</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>270.0</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>158</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>309.0</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>160</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>310.0</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>163</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>311.0</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>165</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>312.0</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>167</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>313.0</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>169</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>314.0</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>171</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>315.0</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>173</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>316.0</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>175</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>317.0</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>177</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>318.0</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>179</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>319.0</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>181</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>320.0</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>183</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>321.0</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>185</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>322.0</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>187</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>323.0</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>189</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>324.0</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>191</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>325.0</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>193</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>326.0</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>195</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>327.0</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>197</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>328.0</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>199</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>329.0</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>201</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>330.0</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>203</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>331.0</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>205</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>332.0</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>207</v>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>333.0</v>
+        <v>101.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>210</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>334.0</v>
+        <v>102.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>212</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>335.0</v>
+        <v>103.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>214</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>336.0</v>
+        <v>104.0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>216</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>337.0</v>
+        <v>105.0</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>218</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>338.0</v>
+        <v>106.0</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>220</v>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>339.0</v>
+        <v>107.0</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>222</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>340.0</v>
+        <v>108.0</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>224</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>341.0</v>
+        <v>109.0</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>226</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>342.0</v>
+        <v>110.0</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>228</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>343.0</v>
+        <v>111.0</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>230</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>344.0</v>
+        <v>112.0</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>232</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>345.0</v>
+        <v>113.0</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>234</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>346.0</v>
+        <v>114.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>236</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>347.0</v>
+        <v>115.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>238</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>348.0</v>
+        <v>116.0</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>240</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>349.0</v>
+        <v>117.0</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>242</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>350.0</v>
+        <v>118.0</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>244</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>351.0</v>
+        <v>119.0</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>246</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>352.0</v>
+        <v>120.0</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>249</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>353.0</v>
+        <v>121.0</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>251</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>354.0</v>
+        <v>122.0</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>253</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>355.0</v>
+        <v>123.0</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>255</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>356.0</v>
+        <v>124.0</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>257</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>357.0</v>
+        <v>125.0</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>259</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>358.0</v>
+        <v>126.0</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>261</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>359.0</v>
+        <v>127.0</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>263</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>360.0</v>
+        <v>128.0</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>265</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>361.0</v>
+        <v>129.0</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>267</v>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>362.0</v>
+        <v>130.0</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>269</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>363.0</v>
+        <v>131.0</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>271</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>364.0</v>
+        <v>132.0</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>273</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>365.0</v>
+        <v>133.0</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>275</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>366.0</v>
+        <v>134.0</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>277</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>367.0</v>
+        <v>135.0</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>279</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>368.0</v>
+        <v>136.0</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>281</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>369.0</v>
+        <v>137.0</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>283</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>370.0</v>
+        <v>138.0</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>285</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>371.0</v>
+        <v>139.0</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>287</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>372.0</v>
+        <v>140.0</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>290</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>373.0</v>
+        <v>141.0</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>292</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>374.0</v>
+        <v>142.0</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>294</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>375.0</v>
+        <v>143.0</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>296</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>376.0</v>
+        <v>144.0</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>298</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>377.0</v>
+        <v>145.0</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>300</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>378.0</v>
+        <v>146.0</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>302</v>
@@ -7792,7 +7792,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>379.0</v>
+        <v>147.0</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>304</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>380.0</v>
+        <v>148.0</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>306</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>381.0</v>
+        <v>149.0</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>308</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>382.0</v>
+        <v>150.0</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>310</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>383.0</v>
+        <v>151.0</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>312</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>384.0</v>
+        <v>152.0</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>314</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>385.0</v>
+        <v>153.0</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>316</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>386.0</v>
+        <v>154.0</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>318</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>387.0</v>
+        <v>155.0</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>320</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>388.0</v>
+        <v>156.0</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>322</v>
@@ -7932,7 +7932,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>389.0</v>
+        <v>157.0</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>324</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>409.0</v>
+        <v>158.0</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>326</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>410.0</v>
+        <v>159.0</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>329</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>411.0</v>
+        <v>160.0</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>331</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>412.0</v>
+        <v>161.0</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>333</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>413.0</v>
+        <v>162.0</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>335</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>414.0</v>
+        <v>163.0</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>337</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>415.0</v>
+        <v>164.0</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>339</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>416.0</v>
+        <v>165.0</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>341</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>417.0</v>
+        <v>166.0</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>343</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>418.0</v>
+        <v>167.0</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>345</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>419.0</v>
+        <v>168.0</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>347</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>420.0</v>
+        <v>169.0</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>349</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>421.0</v>
+        <v>170.0</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>351</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>422.0</v>
+        <v>171.0</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>353</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>423.0</v>
+        <v>172.0</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>355</v>
@@ -8156,7 +8156,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>424.0</v>
+        <v>173.0</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>357</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>425.0</v>
+        <v>174.0</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>359</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>426.0</v>
+        <v>175.0</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>361</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>427.0</v>
+        <v>176.0</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>363</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>428.0</v>
+        <v>177.0</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>365</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>429.0</v>
+        <v>178.0</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>368</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>430.0</v>
+        <v>179.0</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>370</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>431.0</v>
+        <v>180.0</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>372</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>432.0</v>
+        <v>181.0</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>374</v>
@@ -8282,7 +8282,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>433.0</v>
+        <v>182.0</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>376</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>434.0</v>
+        <v>183.0</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>378</v>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>435.0</v>
+        <v>184.0</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>380</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>436.0</v>
+        <v>185.0</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>382</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>437.0</v>
+        <v>186.0</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>384</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>438.0</v>
+        <v>187.0</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>386</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>439.0</v>
+        <v>188.0</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>388</v>
@@ -8380,7 +8380,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>440.0</v>
+        <v>189.0</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>390</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>441.0</v>
+        <v>190.0</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>392</v>
@@ -8408,7 +8408,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>442.0</v>
+        <v>191.0</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>394</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>443.0</v>
+        <v>192.0</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>396</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>444.0</v>
+        <v>193.0</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>398</v>
@@ -8450,7 +8450,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>445.0</v>
+        <v>194.0</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>400</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>446.0</v>
+        <v>195.0</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>402</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>447.0</v>
+        <v>196.0</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>404</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>448.0</v>
+        <v>197.0</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>407</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>449.0</v>
+        <v>198.0</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>409</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>450.0</v>
+        <v>199.0</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>411</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>451.0</v>
+        <v>200.0</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>413</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>452.0</v>
+        <v>201.0</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>415</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>453.0</v>
+        <v>202.0</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>417</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>454.0</v>
+        <v>203.0</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>419</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>455.0</v>
+        <v>204.0</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>421</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>456.0</v>
+        <v>205.0</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>423</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>457.0</v>
+        <v>206.0</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>425</v>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>458.0</v>
+        <v>207.0</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>427</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>459.0</v>
+        <v>208.0</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>429</v>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>460.0</v>
+        <v>209.0</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>431</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>461.0</v>
+        <v>210.0</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>433</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>462.0</v>
+        <v>211.0</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>435</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>463.0</v>
+        <v>212.0</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>437</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>464.0</v>
+        <v>213.0</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>439</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>465.0</v>
+        <v>214.0</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>441</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>466.0</v>
+        <v>215.0</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>443</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>467.0</v>
+        <v>216.0</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>446</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>468.0</v>
+        <v>217.0</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>448</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>469.0</v>
+        <v>218.0</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>450</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>470.0</v>
+        <v>219.0</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>452</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>471.0</v>
+        <v>220.0</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>454</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>472.0</v>
+        <v>221.0</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>456</v>
@@ -8842,7 +8842,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>473.0</v>
+        <v>222.0</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>458</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>474.0</v>
+        <v>223.0</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>460</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>475.0</v>
+        <v>224.0</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>462</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>476.0</v>
+        <v>225.0</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>464</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>477.0</v>
+        <v>226.0</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>466</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>478.0</v>
+        <v>227.0</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>468</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>479.0</v>
+        <v>228.0</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>470</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>480.0</v>
+        <v>229.0</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>472</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>481.0</v>
+        <v>230.0</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>474</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>482.0</v>
+        <v>231.0</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>476</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>483.0</v>
+        <v>232.0</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>478</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>484.0</v>
+        <v>233.0</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>480</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>485.0</v>
+        <v>234.0</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>482</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>486.0</v>
+        <v>235.0</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>484</v>
@@ -9037,8 +9037,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3">
-        <v>2004.0</v>
+      <c r="A237" s="2">
+        <v>236.0</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>486</v>
@@ -9051,8 +9051,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3">
-        <v>2005.0</v>
+      <c r="A238" s="2">
+        <v>237.0</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>489</v>
@@ -9065,8 +9065,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3">
-        <v>2006.0</v>
+      <c r="A239" s="2">
+        <v>238.0</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>491</v>
@@ -9079,8 +9079,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3">
-        <v>2007.0</v>
+      <c r="A240" s="2">
+        <v>239.0</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>493</v>
@@ -9093,8 +9093,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3">
-        <v>2008.0</v>
+      <c r="A241" s="2">
+        <v>240.0</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>495</v>
@@ -9107,8 +9107,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3">
-        <v>2009.0</v>
+      <c r="A242" s="2">
+        <v>241.0</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>497</v>
@@ -9121,8 +9121,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3">
-        <v>2010.0</v>
+      <c r="A243" s="2">
+        <v>242.0</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>499</v>
@@ -9135,8 +9135,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3">
-        <v>2011.0</v>
+      <c r="A244" s="2">
+        <v>243.0</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>501</v>
@@ -9149,8 +9149,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3">
-        <v>2012.0</v>
+      <c r="A245" s="2">
+        <v>244.0</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>503</v>
@@ -9163,8 +9163,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3">
-        <v>2013.0</v>
+      <c r="A246" s="2">
+        <v>245.0</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>505</v>
@@ -9177,8 +9177,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3">
-        <v>2014.0</v>
+      <c r="A247" s="2">
+        <v>246.0</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>507</v>
@@ -9191,8 +9191,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3">
-        <v>2015.0</v>
+      <c r="A248" s="2">
+        <v>247.0</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>509</v>
@@ -9205,8 +9205,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3">
-        <v>2016.0</v>
+      <c r="A249" s="2">
+        <v>248.0</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>511</v>
@@ -9219,8 +9219,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3">
-        <v>2017.0</v>
+      <c r="A250" s="2">
+        <v>249.0</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>513</v>
@@ -9233,8 +9233,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3">
-        <v>2018.0</v>
+      <c r="A251" s="2">
+        <v>250.0</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>515</v>
@@ -9247,8 +9247,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3">
-        <v>2019.0</v>
+      <c r="A252" s="2">
+        <v>251.0</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>517</v>
@@ -9261,8 +9261,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3">
-        <v>2020.0</v>
+      <c r="A253" s="2">
+        <v>252.0</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>519</v>
@@ -9275,8 +9275,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3">
-        <v>2021.0</v>
+      <c r="A254" s="2">
+        <v>253.0</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>521</v>
@@ -9289,8 +9289,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3">
-        <v>2022.0</v>
+      <c r="A255" s="2">
+        <v>254.0</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>523</v>
@@ -9303,8 +9303,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3">
-        <v>2023.0</v>
+      <c r="A256" s="2">
+        <v>255.0</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>525</v>
@@ -9317,8 +9317,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3">
-        <v>2024.0</v>
+      <c r="A257" s="2">
+        <v>256.0</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>527</v>
@@ -9331,8 +9331,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3">
-        <v>2025.0</v>
+      <c r="A258" s="2">
+        <v>257.0</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>529</v>
@@ -9345,8 +9345,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3">
-        <v>2026.0</v>
+      <c r="A259" s="2">
+        <v>258.0</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>531</v>
@@ -9359,8 +9359,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3">
-        <v>2027.0</v>
+      <c r="A260" s="2">
+        <v>259.0</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>533</v>
@@ -9373,8 +9373,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3">
-        <v>2028.0</v>
+      <c r="A261" s="2">
+        <v>260.0</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>535</v>
@@ -9387,8 +9387,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3">
-        <v>2029.0</v>
+      <c r="A262" s="2">
+        <v>261.0</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>537</v>
@@ -9401,8 +9401,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3">
-        <v>2030.0</v>
+      <c r="A263" s="2">
+        <v>262.0</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>539</v>
@@ -9415,8 +9415,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3">
-        <v>2031.0</v>
+      <c r="A264" s="2">
+        <v>263.0</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>541</v>
@@ -9429,8 +9429,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3">
-        <v>2032.0</v>
+      <c r="A265" s="2">
+        <v>264.0</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>544</v>
@@ -9443,8 +9443,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3">
-        <v>2033.0</v>
+      <c r="A266" s="2">
+        <v>265.0</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>546</v>
@@ -9457,8 +9457,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3">
-        <v>2034.0</v>
+      <c r="A267" s="2">
+        <v>266.0</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>548</v>
@@ -9471,8 +9471,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3">
-        <v>2035.0</v>
+      <c r="A268" s="2">
+        <v>267.0</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>550</v>
@@ -9485,8 +9485,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3">
-        <v>2036.0</v>
+      <c r="A269" s="2">
+        <v>268.0</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>552</v>
@@ -9499,8 +9499,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3">
-        <v>2037.0</v>
+      <c r="A270" s="2">
+        <v>269.0</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>554</v>
@@ -9513,8 +9513,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3">
-        <v>2038.0</v>
+      <c r="A271" s="2">
+        <v>270.0</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>556</v>
@@ -9527,8 +9527,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3">
-        <v>2039.0</v>
+      <c r="A272" s="2">
+        <v>271.0</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>558</v>
@@ -9541,8 +9541,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3">
-        <v>2040.0</v>
+      <c r="A273" s="2">
+        <v>272.0</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>560</v>
@@ -9555,8 +9555,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3">
-        <v>2041.0</v>
+      <c r="A274" s="2">
+        <v>273.0</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>562</v>
@@ -9569,8 +9569,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3">
-        <v>2042.0</v>
+      <c r="A275" s="2">
+        <v>274.0</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>564</v>
@@ -9583,8 +9583,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3">
-        <v>2043.0</v>
+      <c r="A276" s="2">
+        <v>275.0</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>566</v>
@@ -9597,8 +9597,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3">
-        <v>2044.0</v>
+      <c r="A277" s="2">
+        <v>276.0</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>568</v>
@@ -9611,8 +9611,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3">
-        <v>2045.0</v>
+      <c r="A278" s="2">
+        <v>277.0</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>570</v>
@@ -9625,8 +9625,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3">
-        <v>2046.0</v>
+      <c r="A279" s="2">
+        <v>278.0</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>572</v>
@@ -9639,8 +9639,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3">
-        <v>2047.0</v>
+      <c r="A280" s="2">
+        <v>279.0</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>574</v>
@@ -9653,8 +9653,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3">
-        <v>2048.0</v>
+      <c r="A281" s="2">
+        <v>280.0</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>576</v>
@@ -9667,8 +9667,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3">
-        <v>2049.0</v>
+      <c r="A282" s="2">
+        <v>281.0</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>578</v>
@@ -9681,8 +9681,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3">
-        <v>2050.0</v>
+      <c r="A283" s="2">
+        <v>282.0</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>580</v>
@@ -9695,8 +9695,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3">
-        <v>2051.0</v>
+      <c r="A284" s="2">
+        <v>283.0</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>582</v>
@@ -9709,8 +9709,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3">
-        <v>2052.0</v>
+      <c r="A285" s="2">
+        <v>284.0</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>584</v>
@@ -9723,8 +9723,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3">
-        <v>2053.0</v>
+      <c r="A286" s="2">
+        <v>285.0</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>586</v>
@@ -9737,8 +9737,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3">
-        <v>2054.0</v>
+      <c r="A287" s="2">
+        <v>286.0</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>588</v>
@@ -9751,8 +9751,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3">
-        <v>2055.0</v>
+      <c r="A288" s="2">
+        <v>287.0</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>590</v>
@@ -9765,8 +9765,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3">
-        <v>2056.0</v>
+      <c r="A289" s="2">
+        <v>288.0</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>592</v>
@@ -9779,8 +9779,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3">
-        <v>2057.0</v>
+      <c r="A290" s="2">
+        <v>289.0</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>595</v>
@@ -9793,8 +9793,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3">
-        <v>2058.0</v>
+      <c r="A291" s="2">
+        <v>290.0</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>597</v>
@@ -9807,8 +9807,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3">
-        <v>2059.0</v>
+      <c r="A292" s="2">
+        <v>291.0</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>599</v>
@@ -9821,8 +9821,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3">
-        <v>2060.0</v>
+      <c r="A293" s="2">
+        <v>292.0</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>601</v>
@@ -9835,8 +9835,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3">
-        <v>2061.0</v>
+      <c r="A294" s="2">
+        <v>293.0</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>603</v>
@@ -9849,8 +9849,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3">
-        <v>2062.0</v>
+      <c r="A295" s="2">
+        <v>294.0</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>605</v>
@@ -9863,8 +9863,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3">
-        <v>2063.0</v>
+      <c r="A296" s="2">
+        <v>295.0</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>607</v>
@@ -9877,8 +9877,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3">
-        <v>2064.0</v>
+      <c r="A297" s="2">
+        <v>296.0</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>609</v>
@@ -9891,8 +9891,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3">
-        <v>2065.0</v>
+      <c r="A298" s="2">
+        <v>297.0</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>611</v>
@@ -9905,8 +9905,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3">
-        <v>2066.0</v>
+      <c r="A299" s="2">
+        <v>298.0</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>613</v>
@@ -9919,8 +9919,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3">
-        <v>2067.0</v>
+      <c r="A300" s="2">
+        <v>299.0</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>615</v>
@@ -9933,8 +9933,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3">
-        <v>2068.0</v>
+      <c r="A301" s="2">
+        <v>300.0</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>617</v>
@@ -9947,8 +9947,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3">
-        <v>2069.0</v>
+      <c r="A302" s="2">
+        <v>301.0</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>619</v>
@@ -9961,8 +9961,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3">
-        <v>2070.0</v>
+      <c r="A303" s="2">
+        <v>302.0</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>621</v>
@@ -9975,8 +9975,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3">
-        <v>2071.0</v>
+      <c r="A304" s="2">
+        <v>303.0</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>623</v>
@@ -9989,8 +9989,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3">
-        <v>2072.0</v>
+      <c r="A305" s="2">
+        <v>304.0</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>625</v>
@@ -10003,8 +10003,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3">
-        <v>2073.0</v>
+      <c r="A306" s="2">
+        <v>305.0</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>627</v>
@@ -10017,8 +10017,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3">
-        <v>2074.0</v>
+      <c r="A307" s="2">
+        <v>306.0</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>629</v>
@@ -10031,8 +10031,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3">
-        <v>2075.0</v>
+      <c r="A308" s="2">
+        <v>307.0</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>631</v>
@@ -10045,8 +10045,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3">
-        <v>2076.0</v>
+      <c r="A309" s="2">
+        <v>308.0</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>633</v>
@@ -10059,8 +10059,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3">
-        <v>2077.0</v>
+      <c r="A310" s="2">
+        <v>309.0</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>635</v>
@@ -10073,8 +10073,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3">
-        <v>2078.0</v>
+      <c r="A311" s="2">
+        <v>310.0</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>637</v>
@@ -10087,8 +10087,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3">
-        <v>2079.0</v>
+      <c r="A312" s="2">
+        <v>311.0</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>639</v>
@@ -10101,8 +10101,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3">
-        <v>2080.0</v>
+      <c r="A313" s="2">
+        <v>312.0</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>641</v>
@@ -10115,8 +10115,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3">
-        <v>2081.0</v>
+      <c r="A314" s="2">
+        <v>313.0</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>643</v>
@@ -10129,8 +10129,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3">
-        <v>2082.0</v>
+      <c r="A315" s="2">
+        <v>314.0</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>645</v>
@@ -10143,8 +10143,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3">
-        <v>2083.0</v>
+      <c r="A316" s="2">
+        <v>315.0</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>647</v>
@@ -10157,8 +10157,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3">
-        <v>2084.0</v>
+      <c r="A317" s="2">
+        <v>316.0</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>649</v>
@@ -10171,8 +10171,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3">
-        <v>2085.0</v>
+      <c r="A318" s="2">
+        <v>317.0</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>651</v>
@@ -10185,8 +10185,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3">
-        <v>2086.0</v>
+      <c r="A319" s="2">
+        <v>318.0</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>653</v>
@@ -10199,8 +10199,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3">
-        <v>2087.0</v>
+      <c r="A320" s="2">
+        <v>319.0</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>655</v>
@@ -10213,8 +10213,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3">
-        <v>2088.0</v>
+      <c r="A321" s="2">
+        <v>320.0</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>657</v>
@@ -10227,8 +10227,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3">
-        <v>2089.0</v>
+      <c r="A322" s="2">
+        <v>321.0</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>659</v>
@@ -10241,8 +10241,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3">
-        <v>2090.0</v>
+      <c r="A323" s="2">
+        <v>322.0</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>661</v>
@@ -10255,8 +10255,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3">
-        <v>2091.0</v>
+      <c r="A324" s="2">
+        <v>323.0</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>664</v>
@@ -10269,8 +10269,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3">
-        <v>2092.0</v>
+      <c r="A325" s="2">
+        <v>324.0</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>666</v>
@@ -10283,8 +10283,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3">
-        <v>2093.0</v>
+      <c r="A326" s="2">
+        <v>325.0</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>668</v>
@@ -10297,8 +10297,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3">
-        <v>2094.0</v>
+      <c r="A327" s="2">
+        <v>326.0</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>670</v>
@@ -10311,8 +10311,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3">
-        <v>2095.0</v>
+      <c r="A328" s="2">
+        <v>327.0</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>672</v>
@@ -10325,8 +10325,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3">
-        <v>2096.0</v>
+      <c r="A329" s="2">
+        <v>328.0</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>674</v>
@@ -10339,8 +10339,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3">
-        <v>2097.0</v>
+      <c r="A330" s="2">
+        <v>329.0</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>676</v>
@@ -10353,8 +10353,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3">
-        <v>2098.0</v>
+      <c r="A331" s="2">
+        <v>330.0</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>678</v>
@@ -10367,8 +10367,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3">
-        <v>2099.0</v>
+      <c r="A332" s="2">
+        <v>331.0</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>680</v>
@@ -10381,8 +10381,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3">
-        <v>2100.0</v>
+      <c r="A333" s="2">
+        <v>332.0</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>682</v>
@@ -10395,8 +10395,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3">
-        <v>2101.0</v>
+      <c r="A334" s="2">
+        <v>333.0</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>684</v>
@@ -10409,8 +10409,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3">
-        <v>2102.0</v>
+      <c r="A335" s="2">
+        <v>334.0</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>686</v>
@@ -10423,8 +10423,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3">
-        <v>2103.0</v>
+      <c r="A336" s="2">
+        <v>335.0</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>688</v>
@@ -10437,8 +10437,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3">
-        <v>2104.0</v>
+      <c r="A337" s="2">
+        <v>336.0</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>690</v>
@@ -10451,8 +10451,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3">
-        <v>2105.0</v>
+      <c r="A338" s="2">
+        <v>337.0</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>692</v>
@@ -10465,8 +10465,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3">
-        <v>2106.0</v>
+      <c r="A339" s="2">
+        <v>338.0</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>694</v>
@@ -10479,8 +10479,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3">
-        <v>2107.0</v>
+      <c r="A340" s="2">
+        <v>339.0</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>696</v>
@@ -10493,8 +10493,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3">
-        <v>2108.0</v>
+      <c r="A341" s="2">
+        <v>340.0</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>698</v>
@@ -10507,8 +10507,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3">
-        <v>2109.0</v>
+      <c r="A342" s="2">
+        <v>341.0</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>700</v>
@@ -10521,8 +10521,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3">
-        <v>2110.0</v>
+      <c r="A343" s="2">
+        <v>342.0</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>702</v>
@@ -10535,8 +10535,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3">
-        <v>2111.0</v>
+      <c r="A344" s="2">
+        <v>343.0</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>704</v>
@@ -10549,8 +10549,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3">
-        <v>2112.0</v>
+      <c r="A345" s="2">
+        <v>344.0</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>707</v>
@@ -10563,8 +10563,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3">
-        <v>2113.0</v>
+      <c r="A346" s="2">
+        <v>345.0</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>709</v>
@@ -10577,8 +10577,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3">
-        <v>2114.0</v>
+      <c r="A347" s="2">
+        <v>346.0</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>711</v>
@@ -10591,8 +10591,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3">
-        <v>2115.0</v>
+      <c r="A348" s="2">
+        <v>347.0</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>713</v>
@@ -10605,8 +10605,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3">
-        <v>2116.0</v>
+      <c r="A349" s="2">
+        <v>348.0</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>715</v>
@@ -10619,8 +10619,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3">
-        <v>2117.0</v>
+      <c r="A350" s="2">
+        <v>349.0</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>717</v>
@@ -10633,8 +10633,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3">
-        <v>2118.0</v>
+      <c r="A351" s="2">
+        <v>350.0</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>719</v>
@@ -10647,8 +10647,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3">
-        <v>2119.0</v>
+      <c r="A352" s="2">
+        <v>351.0</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>721</v>
@@ -10661,8 +10661,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3">
-        <v>2120.0</v>
+      <c r="A353" s="2">
+        <v>352.0</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>723</v>
@@ -10675,8 +10675,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3">
-        <v>2121.0</v>
+      <c r="A354" s="2">
+        <v>353.0</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>725</v>
@@ -10689,8 +10689,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3">
-        <v>2122.0</v>
+      <c r="A355" s="2">
+        <v>354.0</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>727</v>
@@ -10703,8 +10703,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3">
-        <v>2123.0</v>
+      <c r="A356" s="2">
+        <v>355.0</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>729</v>
@@ -10717,8 +10717,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3">
-        <v>2124.0</v>
+      <c r="A357" s="2">
+        <v>356.0</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>731</v>
@@ -10731,8 +10731,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3">
-        <v>2125.0</v>
+      <c r="A358" s="2">
+        <v>357.0</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>733</v>
@@ -10745,8 +10745,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3">
-        <v>2126.0</v>
+      <c r="A359" s="2">
+        <v>358.0</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>735</v>
@@ -10759,8 +10759,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3">
-        <v>2127.0</v>
+      <c r="A360" s="2">
+        <v>359.0</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>737</v>
@@ -10773,8 +10773,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3">
-        <v>2128.0</v>
+      <c r="A361" s="2">
+        <v>360.0</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>739</v>
@@ -10787,8 +10787,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3">
-        <v>2129.0</v>
+      <c r="A362" s="2">
+        <v>361.0</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>742</v>
@@ -10801,8 +10801,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3">
-        <v>2130.0</v>
+      <c r="A363" s="2">
+        <v>362.0</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>744</v>
@@ -10815,8 +10815,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3">
-        <v>2131.0</v>
+      <c r="A364" s="2">
+        <v>363.0</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>746</v>
@@ -10829,8 +10829,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3">
-        <v>2132.0</v>
+      <c r="A365" s="2">
+        <v>364.0</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>748</v>
@@ -10843,8 +10843,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3">
-        <v>2133.0</v>
+      <c r="A366" s="2">
+        <v>365.0</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>750</v>
@@ -10857,8 +10857,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3">
-        <v>2134.0</v>
+      <c r="A367" s="2">
+        <v>366.0</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>752</v>
@@ -10871,8 +10871,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3">
-        <v>2135.0</v>
+      <c r="A368" s="2">
+        <v>367.0</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>754</v>
@@ -10885,8 +10885,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3">
-        <v>2136.0</v>
+      <c r="A369" s="2">
+        <v>368.0</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>756</v>
@@ -10899,8 +10899,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3">
-        <v>2137.0</v>
+      <c r="A370" s="2">
+        <v>369.0</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>758</v>
@@ -10913,8 +10913,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3">
-        <v>2138.0</v>
+      <c r="A371" s="2">
+        <v>370.0</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>760</v>
@@ -10927,8 +10927,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3">
-        <v>2139.0</v>
+      <c r="A372" s="2">
+        <v>371.0</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>762</v>
@@ -10941,8 +10941,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3">
-        <v>2140.0</v>
+      <c r="A373" s="2">
+        <v>372.0</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>764</v>
@@ -10955,8 +10955,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3">
-        <v>2141.0</v>
+      <c r="A374" s="2">
+        <v>373.0</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>766</v>
@@ -10969,8 +10969,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3">
-        <v>2142.0</v>
+      <c r="A375" s="2">
+        <v>374.0</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>768</v>
@@ -10983,8 +10983,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3">
-        <v>2143.0</v>
+      <c r="A376" s="2">
+        <v>375.0</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>770</v>
@@ -10997,8 +10997,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3">
-        <v>2144.0</v>
+      <c r="A377" s="2">
+        <v>376.0</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>772</v>
@@ -11011,8 +11011,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3">
-        <v>2145.0</v>
+      <c r="A378" s="2">
+        <v>377.0</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>774</v>
@@ -11025,8 +11025,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3">
-        <v>2146.0</v>
+      <c r="A379" s="2">
+        <v>378.0</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>776</v>
@@ -11039,8 +11039,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3">
-        <v>2147.0</v>
+      <c r="A380" s="2">
+        <v>379.0</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>778</v>
@@ -11053,8 +11053,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3">
-        <v>2148.0</v>
+      <c r="A381" s="2">
+        <v>380.0</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>780</v>
@@ -11067,8 +11067,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3">
-        <v>2149.0</v>
+      <c r="A382" s="2">
+        <v>381.0</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>782</v>
@@ -11081,8 +11081,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3">
-        <v>2150.0</v>
+      <c r="A383" s="2">
+        <v>382.0</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>784</v>
@@ -11095,8 +11095,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3">
-        <v>2151.0</v>
+      <c r="A384" s="2">
+        <v>383.0</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>786</v>
@@ -11109,8 +11109,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3">
-        <v>2152.0</v>
+      <c r="A385" s="2">
+        <v>384.0</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>788</v>
@@ -11123,8 +11123,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3">
-        <v>2153.0</v>
+      <c r="A386" s="2">
+        <v>385.0</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>790</v>
@@ -11137,8 +11137,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3">
-        <v>2154.0</v>
+      <c r="A387" s="2">
+        <v>386.0</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>792</v>
@@ -11151,8 +11151,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3">
-        <v>2155.0</v>
+      <c r="A388" s="2">
+        <v>387.0</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>794</v>
@@ -11165,8 +11165,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3">
-        <v>2156.0</v>
+      <c r="A389" s="2">
+        <v>388.0</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>797</v>
@@ -11179,8 +11179,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3">
-        <v>2157.0</v>
+      <c r="A390" s="2">
+        <v>389.0</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>799</v>
@@ -11193,8 +11193,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3">
-        <v>2158.0</v>
+      <c r="A391" s="2">
+        <v>390.0</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>801</v>
@@ -11207,8 +11207,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3">
-        <v>2159.0</v>
+      <c r="A392" s="2">
+        <v>391.0</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>803</v>
@@ -11221,8 +11221,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3">
-        <v>2160.0</v>
+      <c r="A393" s="2">
+        <v>392.0</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>797</v>
@@ -11235,8 +11235,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3">
-        <v>2161.0</v>
+      <c r="A394" s="2">
+        <v>393.0</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>805</v>
@@ -11249,8 +11249,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3">
-        <v>2162.0</v>
+      <c r="A395" s="2">
+        <v>394.0</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>807</v>
@@ -11263,8 +11263,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3">
-        <v>2163.0</v>
+      <c r="A396" s="2">
+        <v>395.0</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>809</v>
@@ -11277,8 +11277,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3">
-        <v>2164.0</v>
+      <c r="A397" s="2">
+        <v>396.0</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>811</v>
@@ -11291,8 +11291,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3">
-        <v>2165.0</v>
+      <c r="A398" s="2">
+        <v>397.0</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>813</v>
@@ -11305,8 +11305,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3">
-        <v>2166.0</v>
+      <c r="A399" s="2">
+        <v>398.0</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>815</v>
@@ -11319,8 +11319,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3">
-        <v>2167.0</v>
+      <c r="A400" s="2">
+        <v>399.0</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>817</v>
@@ -11333,8 +11333,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3">
-        <v>2168.0</v>
+      <c r="A401" s="2">
+        <v>400.0</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>819</v>
@@ -11347,8 +11347,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3">
-        <v>2169.0</v>
+      <c r="A402" s="2">
+        <v>401.0</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>821</v>
@@ -11361,8 +11361,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3">
-        <v>2170.0</v>
+      <c r="A403" s="2">
+        <v>402.0</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>823</v>
@@ -11375,8 +11375,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3">
-        <v>2171.0</v>
+      <c r="A404" s="2">
+        <v>403.0</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>825</v>
@@ -11389,8 +11389,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3">
-        <v>2172.0</v>
+      <c r="A405" s="2">
+        <v>404.0</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>827</v>
@@ -11403,8 +11403,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3">
-        <v>2173.0</v>
+      <c r="A406" s="2">
+        <v>405.0</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>830</v>
@@ -11417,8 +11417,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3">
-        <v>2174.0</v>
+      <c r="A407" s="2">
+        <v>406.0</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>832</v>
@@ -11431,8 +11431,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3">
-        <v>2175.0</v>
+      <c r="A408" s="2">
+        <v>407.0</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>834</v>
@@ -11445,8 +11445,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3">
-        <v>2176.0</v>
+      <c r="A409" s="2">
+        <v>408.0</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>836</v>
@@ -11459,8 +11459,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3">
-        <v>2177.0</v>
+      <c r="A410" s="2">
+        <v>409.0</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>838</v>
@@ -11473,8 +11473,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3">
-        <v>2178.0</v>
+      <c r="A411" s="2">
+        <v>410.0</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>840</v>
@@ -11487,8 +11487,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3">
-        <v>2179.0</v>
+      <c r="A412" s="2">
+        <v>411.0</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>842</v>
@@ -11501,8 +11501,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3">
-        <v>2180.0</v>
+      <c r="A413" s="2">
+        <v>412.0</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>844</v>
@@ -11515,8 +11515,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3">
-        <v>2181.0</v>
+      <c r="A414" s="2">
+        <v>413.0</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>846</v>
@@ -11529,8 +11529,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3">
-        <v>2182.0</v>
+      <c r="A415" s="2">
+        <v>414.0</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>848</v>
@@ -11543,8 +11543,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3">
-        <v>2183.0</v>
+      <c r="A416" s="2">
+        <v>415.0</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>850</v>
@@ -11557,8 +11557,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3">
-        <v>2184.0</v>
+      <c r="A417" s="2">
+        <v>416.0</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>852</v>
@@ -11571,8 +11571,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3">
-        <v>2185.0</v>
+      <c r="A418" s="2">
+        <v>417.0</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>854</v>
@@ -11585,8 +11585,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3">
-        <v>2186.0</v>
+      <c r="A419" s="2">
+        <v>418.0</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>856</v>
@@ -11599,8 +11599,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3">
-        <v>2187.0</v>
+      <c r="A420" s="2">
+        <v>419.0</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>858</v>
@@ -11613,8 +11613,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3">
-        <v>2188.0</v>
+      <c r="A421" s="2">
+        <v>420.0</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>860</v>
@@ -11627,8 +11627,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3">
-        <v>2189.0</v>
+      <c r="A422" s="2">
+        <v>421.0</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>862</v>
@@ -11641,8 +11641,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3">
-        <v>2190.0</v>
+      <c r="A423" s="2">
+        <v>422.0</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>864</v>
@@ -11655,8 +11655,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="3">
-        <v>2191.0</v>
+      <c r="A424" s="2">
+        <v>423.0</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>866</v>
@@ -11669,8 +11669,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="3">
-        <v>2192.0</v>
+      <c r="A425" s="2">
+        <v>424.0</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>868</v>
@@ -11683,8 +11683,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="3">
-        <v>2193.0</v>
+      <c r="A426" s="2">
+        <v>425.0</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>870</v>
@@ -11697,8 +11697,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="3">
-        <v>2194.0</v>
+      <c r="A427" s="2">
+        <v>426.0</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>872</v>
@@ -11711,8 +11711,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="3">
-        <v>2195.0</v>
+      <c r="A428" s="2">
+        <v>427.0</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>874</v>
@@ -11725,8 +11725,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="3">
-        <v>2196.0</v>
+      <c r="A429" s="2">
+        <v>428.0</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>876</v>
@@ -11739,8 +11739,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="3">
-        <v>2197.0</v>
+      <c r="A430" s="2">
+        <v>429.0</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>878</v>
@@ -11753,8 +11753,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="3">
-        <v>2198.0</v>
+      <c r="A431" s="2">
+        <v>430.0</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>880</v>
@@ -11767,8 +11767,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="3">
-        <v>2199.0</v>
+      <c r="A432" s="2">
+        <v>431.0</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>882</v>
@@ -11781,8 +11781,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="3">
-        <v>2200.0</v>
+      <c r="A433" s="2">
+        <v>432.0</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>884</v>
@@ -11795,8 +11795,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="3">
-        <v>2201.0</v>
+      <c r="A434" s="2">
+        <v>433.0</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>886</v>
@@ -11809,8 +11809,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="3">
-        <v>2202.0</v>
+      <c r="A435" s="2">
+        <v>434.0</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>888</v>
@@ -11823,8 +11823,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="3">
-        <v>2203.0</v>
+      <c r="A436" s="2">
+        <v>435.0</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>891</v>
@@ -11837,8 +11837,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="3">
-        <v>2204.0</v>
+      <c r="A437" s="2">
+        <v>436.0</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>893</v>
@@ -11851,8 +11851,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="3">
-        <v>2205.0</v>
+      <c r="A438" s="2">
+        <v>437.0</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>895</v>
@@ -11865,8 +11865,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="3">
-        <v>2206.0</v>
+      <c r="A439" s="2">
+        <v>438.0</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>897</v>
@@ -11879,8 +11879,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="3">
-        <v>2207.0</v>
+      <c r="A440" s="2">
+        <v>439.0</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>899</v>
@@ -11893,8 +11893,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="3">
-        <v>2208.0</v>
+      <c r="A441" s="2">
+        <v>440.0</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>901</v>
@@ -11907,8 +11907,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="3">
-        <v>2209.0</v>
+      <c r="A442" s="2">
+        <v>441.0</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>903</v>
@@ -11921,8 +11921,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="3">
-        <v>2210.0</v>
+      <c r="A443" s="2">
+        <v>442.0</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>905</v>
@@ -11935,8 +11935,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="3">
-        <v>2211.0</v>
+      <c r="A444" s="2">
+        <v>443.0</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>907</v>
@@ -11949,8 +11949,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="3">
-        <v>2212.0</v>
+      <c r="A445" s="2">
+        <v>444.0</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>909</v>
@@ -11963,8 +11963,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="3">
-        <v>2213.0</v>
+      <c r="A446" s="2">
+        <v>445.0</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>911</v>
@@ -11977,8 +11977,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="3">
-        <v>2214.0</v>
+      <c r="A447" s="2">
+        <v>446.0</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>913</v>
@@ -11991,8 +11991,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="3">
-        <v>2215.0</v>
+      <c r="A448" s="2">
+        <v>447.0</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>915</v>
@@ -12005,8 +12005,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="3">
-        <v>2216.0</v>
+      <c r="A449" s="2">
+        <v>448.0</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>917</v>
@@ -12019,8 +12019,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="3">
-        <v>2217.0</v>
+      <c r="A450" s="2">
+        <v>449.0</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>919</v>
@@ -12033,8 +12033,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="3">
-        <v>2218.0</v>
+      <c r="A451" s="2">
+        <v>450.0</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>921</v>
@@ -12047,8 +12047,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="3">
-        <v>2219.0</v>
+      <c r="A452" s="2">
+        <v>451.0</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>923</v>
@@ -12061,8 +12061,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="3">
-        <v>2220.0</v>
+      <c r="A453" s="2">
+        <v>452.0</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>925</v>
@@ -12075,8 +12075,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="3">
-        <v>2221.0</v>
+      <c r="A454" s="2">
+        <v>453.0</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>927</v>
@@ -12089,8 +12089,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="3">
-        <v>2222.0</v>
+      <c r="A455" s="2">
+        <v>454.0</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>929</v>
@@ -12103,8 +12103,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="3">
-        <v>2223.0</v>
+      <c r="A456" s="2">
+        <v>455.0</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>931</v>
@@ -12117,8 +12117,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="3">
-        <v>2224.0</v>
+      <c r="A457" s="2">
+        <v>456.0</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>933</v>
@@ -12131,8 +12131,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="3">
-        <v>2225.0</v>
+      <c r="A458" s="2">
+        <v>457.0</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>935</v>
@@ -12145,8 +12145,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="3">
-        <v>2226.0</v>
+      <c r="A459" s="2">
+        <v>458.0</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>937</v>
@@ -12159,8 +12159,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="3">
-        <v>2227.0</v>
+      <c r="A460" s="2">
+        <v>459.0</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>939</v>
@@ -12173,8 +12173,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="3">
-        <v>2228.0</v>
+      <c r="A461" s="2">
+        <v>460.0</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>941</v>
@@ -12187,8 +12187,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="3">
-        <v>2229.0</v>
+      <c r="A462" s="2">
+        <v>461.0</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>943</v>
@@ -12201,8 +12201,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="3">
-        <v>2230.0</v>
+      <c r="A463" s="2">
+        <v>462.0</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>946</v>
@@ -12215,8 +12215,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="3">
-        <v>2231.0</v>
+      <c r="A464" s="2">
+        <v>463.0</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>948</v>
@@ -12229,8 +12229,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="3">
-        <v>2232.0</v>
+      <c r="A465" s="2">
+        <v>464.0</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>950</v>
@@ -12243,8 +12243,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="3">
-        <v>2233.0</v>
+      <c r="A466" s="2">
+        <v>465.0</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>952</v>
@@ -12257,8 +12257,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="3">
-        <v>2234.0</v>
+      <c r="A467" s="2">
+        <v>466.0</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>954</v>
@@ -12271,8 +12271,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="3">
-        <v>2235.0</v>
+      <c r="A468" s="2">
+        <v>467.0</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>956</v>
@@ -12285,8 +12285,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="3">
-        <v>2236.0</v>
+      <c r="A469" s="2">
+        <v>468.0</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>958</v>
@@ -12299,8 +12299,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="3">
-        <v>2237.0</v>
+      <c r="A470" s="2">
+        <v>469.0</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>960</v>
@@ -12313,8 +12313,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="3">
-        <v>2238.0</v>
+      <c r="A471" s="2">
+        <v>470.0</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>962</v>
@@ -12327,8 +12327,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="3">
-        <v>2239.0</v>
+      <c r="A472" s="2">
+        <v>471.0</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>964</v>
@@ -12341,8 +12341,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="3">
-        <v>2240.0</v>
+      <c r="A473" s="2">
+        <v>472.0</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>966</v>
@@ -12355,8 +12355,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="3">
-        <v>2241.0</v>
+      <c r="A474" s="2">
+        <v>473.0</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>968</v>
@@ -12369,8 +12369,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="3">
-        <v>2242.0</v>
+      <c r="A475" s="2">
+        <v>474.0</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>970</v>
@@ -12383,8 +12383,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="3">
-        <v>2243.0</v>
+      <c r="A476" s="2">
+        <v>475.0</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>972</v>
@@ -12397,8 +12397,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="3">
-        <v>2244.0</v>
+      <c r="A477" s="2">
+        <v>476.0</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>974</v>
@@ -12411,8 +12411,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="3">
-        <v>2245.0</v>
+      <c r="A478" s="2">
+        <v>477.0</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>976</v>
@@ -12425,8 +12425,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="3">
-        <v>2246.0</v>
+      <c r="A479" s="2">
+        <v>478.0</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>978</v>
@@ -12439,8 +12439,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="3">
-        <v>2247.0</v>
+      <c r="A480" s="2">
+        <v>479.0</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>980</v>
@@ -12453,8 +12453,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="3">
-        <v>2248.0</v>
+      <c r="A481" s="2">
+        <v>480.0</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>982</v>
@@ -12467,8 +12467,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="3">
-        <v>2249.0</v>
+      <c r="A482" s="2">
+        <v>481.0</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>984</v>
@@ -12481,8 +12481,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="3">
-        <v>2250.0</v>
+      <c r="A483" s="2">
+        <v>482.0</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>986</v>
@@ -12495,8 +12495,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="3">
-        <v>2251.0</v>
+      <c r="A484" s="2">
+        <v>483.0</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>988</v>
@@ -12509,8 +12509,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="3">
-        <v>2252.0</v>
+      <c r="A485" s="2">
+        <v>484.0</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>990</v>
@@ -12523,8 +12523,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="3">
-        <v>2253.0</v>
+      <c r="A486" s="2">
+        <v>485.0</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>992</v>
@@ -12537,8 +12537,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="3">
-        <v>2254.0</v>
+      <c r="A487" s="2">
+        <v>486.0</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>994</v>
@@ -12551,8 +12551,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="3">
-        <v>2255.0</v>
+      <c r="A488" s="2">
+        <v>487.0</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>997</v>
@@ -12565,8 +12565,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="3">
-        <v>2256.0</v>
+      <c r="A489" s="2">
+        <v>488.0</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>999</v>
@@ -12579,8 +12579,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="3">
-        <v>2257.0</v>
+      <c r="A490" s="2">
+        <v>489.0</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>1001</v>
@@ -12593,8 +12593,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="3">
-        <v>2258.0</v>
+      <c r="A491" s="2">
+        <v>490.0</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>999</v>
@@ -12607,8 +12607,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="3">
-        <v>2259.0</v>
+      <c r="A492" s="2">
+        <v>491.0</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>1003</v>
@@ -12621,8 +12621,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="3">
-        <v>2260.0</v>
+      <c r="A493" s="2">
+        <v>492.0</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>1005</v>
@@ -12635,8 +12635,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="3">
-        <v>2261.0</v>
+      <c r="A494" s="2">
+        <v>493.0</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>1007</v>
@@ -12649,8 +12649,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="3">
-        <v>2262.0</v>
+      <c r="A495" s="2">
+        <v>494.0</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>1009</v>
@@ -12663,8 +12663,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="3">
-        <v>2263.0</v>
+      <c r="A496" s="2">
+        <v>495.0</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>1011</v>
@@ -12677,8 +12677,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="3">
-        <v>2264.0</v>
+      <c r="A497" s="2">
+        <v>496.0</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>1013</v>
@@ -12691,8 +12691,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="3">
-        <v>2265.0</v>
+      <c r="A498" s="2">
+        <v>497.0</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>1015</v>
@@ -12705,8 +12705,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="3">
-        <v>2266.0</v>
+      <c r="A499" s="2">
+        <v>498.0</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>1017</v>
@@ -12719,8 +12719,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="3">
-        <v>2267.0</v>
+      <c r="A500" s="2">
+        <v>499.0</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>1019</v>
@@ -12733,8 +12733,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="3">
-        <v>2268.0</v>
+      <c r="A501" s="2">
+        <v>500.0</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>1021</v>
@@ -12747,8 +12747,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="3">
-        <v>2269.0</v>
+      <c r="A502" s="2">
+        <v>501.0</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>1023</v>
@@ -12761,8 +12761,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="3">
-        <v>2270.0</v>
+      <c r="A503" s="2">
+        <v>502.0</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>1025</v>
@@ -12775,8 +12775,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="3">
-        <v>2271.0</v>
+      <c r="A504" s="2">
+        <v>503.0</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>1027</v>
@@ -12789,8 +12789,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="3">
-        <v>2272.0</v>
+      <c r="A505" s="2">
+        <v>504.0</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>1029</v>
@@ -12803,8 +12803,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="3">
-        <v>2273.0</v>
+      <c r="A506" s="2">
+        <v>505.0</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>1031</v>
@@ -12817,8 +12817,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="3">
-        <v>2274.0</v>
+      <c r="A507" s="2">
+        <v>506.0</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>1033</v>
@@ -12831,8 +12831,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="3">
-        <v>2275.0</v>
+      <c r="A508" s="2">
+        <v>507.0</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>1035</v>
@@ -12845,8 +12845,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="3">
-        <v>2276.0</v>
+      <c r="A509" s="2">
+        <v>508.0</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1037</v>
@@ -12859,8 +12859,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="3">
-        <v>2277.0</v>
+      <c r="A510" s="2">
+        <v>509.0</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>1039</v>
@@ -12873,8 +12873,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="3">
-        <v>2278.0</v>
+      <c r="A511" s="2">
+        <v>510.0</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>1041</v>
@@ -12887,8 +12887,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="3">
-        <v>2279.0</v>
+      <c r="A512" s="2">
+        <v>511.0</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>1043</v>
@@ -12901,8 +12901,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="3">
-        <v>2280.0</v>
+      <c r="A513" s="2">
+        <v>512.0</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>1046</v>
@@ -12915,8 +12915,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="3">
-        <v>2281.0</v>
+      <c r="A514" s="2">
+        <v>513.0</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>1048</v>
@@ -12929,8 +12929,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="3">
-        <v>2282.0</v>
+      <c r="A515" s="2">
+        <v>514.0</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>1050</v>
@@ -12943,8 +12943,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="3">
-        <v>2283.0</v>
+      <c r="A516" s="2">
+        <v>515.0</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>1052</v>
@@ -12957,8 +12957,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="3">
-        <v>2284.0</v>
+      <c r="A517" s="2">
+        <v>516.0</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>1054</v>
@@ -12971,8 +12971,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="3">
-        <v>2285.0</v>
+      <c r="A518" s="2">
+        <v>517.0</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>1056</v>
@@ -12985,8 +12985,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="3">
-        <v>2286.0</v>
+      <c r="A519" s="2">
+        <v>518.0</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>1058</v>
@@ -12999,8 +12999,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="3">
-        <v>2287.0</v>
+      <c r="A520" s="2">
+        <v>519.0</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>1060</v>
@@ -13013,8 +13013,8 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="3">
-        <v>2288.0</v>
+      <c r="A521" s="2">
+        <v>520.0</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>1062</v>
@@ -13027,8 +13027,8 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="3">
-        <v>2289.0</v>
+      <c r="A522" s="2">
+        <v>521.0</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>1064</v>
@@ -13041,8 +13041,8 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="3">
-        <v>2290.0</v>
+      <c r="A523" s="2">
+        <v>522.0</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>1066</v>
@@ -13055,8 +13055,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="3">
-        <v>2291.0</v>
+      <c r="A524" s="2">
+        <v>523.0</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>1068</v>
@@ -13069,8 +13069,8 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="3">
-        <v>2292.0</v>
+      <c r="A525" s="2">
+        <v>524.0</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>1070</v>
@@ -13083,8 +13083,8 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="3">
-        <v>2293.0</v>
+      <c r="A526" s="2">
+        <v>525.0</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>1072</v>
@@ -13097,8 +13097,8 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="3">
-        <v>2294.0</v>
+      <c r="A527" s="2">
+        <v>526.0</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>1074</v>
@@ -13111,8 +13111,8 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="3">
-        <v>2295.0</v>
+      <c r="A528" s="2">
+        <v>527.0</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>1076</v>
@@ -13125,8 +13125,8 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="3">
-        <v>2296.0</v>
+      <c r="A529" s="2">
+        <v>528.0</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>1078</v>
@@ -13139,8 +13139,8 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="3">
-        <v>2297.0</v>
+      <c r="A530" s="2">
+        <v>529.0</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>1080</v>
@@ -13153,8 +13153,8 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="3">
-        <v>2298.0</v>
+      <c r="A531" s="2">
+        <v>530.0</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>1082</v>
@@ -13167,8 +13167,8 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="3">
-        <v>2299.0</v>
+      <c r="A532" s="2">
+        <v>531.0</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>1084</v>
@@ -13181,8 +13181,8 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="3">
-        <v>2300.0</v>
+      <c r="A533" s="2">
+        <v>532.0</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>1086</v>
@@ -13195,8 +13195,8 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="3">
-        <v>2301.0</v>
+      <c r="A534" s="2">
+        <v>533.0</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>1088</v>
@@ -13209,8 +13209,8 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="3">
-        <v>2302.0</v>
+      <c r="A535" s="2">
+        <v>534.0</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>1090</v>
@@ -13223,8 +13223,8 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="3">
-        <v>2303.0</v>
+      <c r="A536" s="2">
+        <v>535.0</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>1092</v>
@@ -13237,8 +13237,8 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="3">
-        <v>2304.0</v>
+      <c r="A537" s="2">
+        <v>536.0</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>1094</v>
@@ -13251,8 +13251,8 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="3">
-        <v>2305.0</v>
+      <c r="A538" s="2">
+        <v>537.0</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>1097</v>
@@ -13265,8 +13265,8 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="3">
-        <v>2306.0</v>
+      <c r="A539" s="2">
+        <v>538.0</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>1099</v>
@@ -13279,8 +13279,8 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="3">
-        <v>2307.0</v>
+      <c r="A540" s="2">
+        <v>539.0</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>1101</v>
@@ -13293,8 +13293,8 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="3">
-        <v>2308.0</v>
+      <c r="A541" s="2">
+        <v>540.0</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>1103</v>
@@ -13307,8 +13307,8 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="3">
-        <v>2309.0</v>
+      <c r="A542" s="2">
+        <v>541.0</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>1105</v>
@@ -13321,8 +13321,8 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="3">
-        <v>2310.0</v>
+      <c r="A543" s="2">
+        <v>542.0</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>1107</v>
@@ -13335,8 +13335,8 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="3">
-        <v>2311.0</v>
+      <c r="A544" s="2">
+        <v>543.0</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>1109</v>
@@ -13349,8 +13349,8 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="3">
-        <v>2312.0</v>
+      <c r="A545" s="2">
+        <v>544.0</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>1111</v>
@@ -13363,8 +13363,8 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="3">
-        <v>2313.0</v>
+      <c r="A546" s="2">
+        <v>545.0</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>1113</v>
@@ -13377,8 +13377,8 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="3">
-        <v>2314.0</v>
+      <c r="A547" s="2">
+        <v>546.0</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>1115</v>
@@ -13391,8 +13391,8 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="3">
-        <v>2315.0</v>
+      <c r="A548" s="2">
+        <v>547.0</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>1117</v>
@@ -13405,8 +13405,8 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="3">
-        <v>2316.0</v>
+      <c r="A549" s="2">
+        <v>548.0</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>1119</v>
@@ -13419,8 +13419,8 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="3">
-        <v>2317.0</v>
+      <c r="A550" s="2">
+        <v>549.0</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>1121</v>
@@ -13433,8 +13433,8 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="3">
-        <v>2318.0</v>
+      <c r="A551" s="2">
+        <v>550.0</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>1123</v>
@@ -13447,8 +13447,8 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="3">
-        <v>2319.0</v>
+      <c r="A552" s="2">
+        <v>551.0</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>1125</v>
@@ -13461,8 +13461,8 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="3">
-        <v>2320.0</v>
+      <c r="A553" s="2">
+        <v>552.0</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>1127</v>
@@ -13475,8 +13475,8 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="3">
-        <v>2321.0</v>
+      <c r="A554" s="2">
+        <v>553.0</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>1129</v>
@@ -13489,8 +13489,8 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="3">
-        <v>2322.0</v>
+      <c r="A555" s="2">
+        <v>554.0</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>1131</v>
@@ -13503,8 +13503,8 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="3">
-        <v>2323.0</v>
+      <c r="A556" s="2">
+        <v>555.0</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>1133</v>
@@ -13517,8 +13517,8 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="3">
-        <v>2324.0</v>
+      <c r="A557" s="2">
+        <v>556.0</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>1135</v>
@@ -13531,8 +13531,8 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="3">
-        <v>2325.0</v>
+      <c r="A558" s="2">
+        <v>557.0</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>1137</v>
@@ -13545,8 +13545,8 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="3">
-        <v>2326.0</v>
+      <c r="A559" s="2">
+        <v>558.0</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>1139</v>
@@ -13559,8 +13559,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="3">
-        <v>2327.0</v>
+      <c r="A560" s="2">
+        <v>559.0</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>1141</v>
@@ -13573,8 +13573,8 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="3">
-        <v>2328.0</v>
+      <c r="A561" s="2">
+        <v>560.0</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>1143</v>
@@ -13587,8 +13587,8 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="3">
-        <v>2329.0</v>
+      <c r="A562" s="2">
+        <v>561.0</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>1146</v>
@@ -13601,8 +13601,8 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="3">
-        <v>2330.0</v>
+      <c r="A563" s="2">
+        <v>562.0</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>1148</v>
@@ -13615,8 +13615,8 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="3">
-        <v>2331.0</v>
+      <c r="A564" s="2">
+        <v>563.0</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>1150</v>
@@ -13629,8 +13629,8 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="3">
-        <v>2332.0</v>
+      <c r="A565" s="2">
+        <v>564.0</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>1152</v>
@@ -13643,8 +13643,8 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="3">
-        <v>2333.0</v>
+      <c r="A566" s="2">
+        <v>565.0</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>1154</v>
@@ -13657,8 +13657,8 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="3">
-        <v>2334.0</v>
+      <c r="A567" s="2">
+        <v>566.0</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>1156</v>
@@ -13671,8 +13671,8 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="3">
-        <v>2335.0</v>
+      <c r="A568" s="2">
+        <v>567.0</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>1158</v>
@@ -13685,8 +13685,8 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="3">
-        <v>2336.0</v>
+      <c r="A569" s="2">
+        <v>568.0</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>1160</v>
@@ -13699,8 +13699,8 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="3">
-        <v>2337.0</v>
+      <c r="A570" s="2">
+        <v>569.0</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>1162</v>
@@ -13713,8 +13713,8 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="3">
-        <v>2338.0</v>
+      <c r="A571" s="2">
+        <v>570.0</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>1164</v>
@@ -13727,8 +13727,8 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="3">
-        <v>2339.0</v>
+      <c r="A572" s="2">
+        <v>571.0</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>1166</v>
@@ -13741,8 +13741,8 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="3">
-        <v>2340.0</v>
+      <c r="A573" s="2">
+        <v>572.0</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>1168</v>
@@ -13755,8 +13755,8 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="3">
-        <v>2341.0</v>
+      <c r="A574" s="2">
+        <v>573.0</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>1170</v>
@@ -13769,8 +13769,8 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="3">
-        <v>2342.0</v>
+      <c r="A575" s="2">
+        <v>574.0</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>1172</v>
@@ -13783,8 +13783,8 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="3">
-        <v>2343.0</v>
+      <c r="A576" s="2">
+        <v>575.0</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>1174</v>
@@ -13797,8 +13797,8 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="3">
-        <v>2344.0</v>
+      <c r="A577" s="2">
+        <v>576.0</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>1176</v>
@@ -13811,8 +13811,8 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="3">
-        <v>2345.0</v>
+      <c r="A578" s="2">
+        <v>577.0</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>1178</v>
@@ -13825,8 +13825,8 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="3">
-        <v>2346.0</v>
+      <c r="A579" s="2">
+        <v>578.0</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>1180</v>
@@ -13839,8 +13839,8 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="3">
-        <v>2347.0</v>
+      <c r="A580" s="2">
+        <v>579.0</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>1182</v>
@@ -13853,8 +13853,8 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="3">
-        <v>2348.0</v>
+      <c r="A581" s="2">
+        <v>580.0</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>1184</v>
@@ -13867,8 +13867,8 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="3">
-        <v>2349.0</v>
+      <c r="A582" s="2">
+        <v>581.0</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>1186</v>
@@ -13881,8 +13881,8 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="3">
-        <v>2350.0</v>
+      <c r="A583" s="2">
+        <v>582.0</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>1188</v>
@@ -13895,8 +13895,8 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="3">
-        <v>2351.0</v>
+      <c r="A584" s="2">
+        <v>583.0</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>1190</v>
@@ -13909,8 +13909,8 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" s="3">
-        <v>2352.0</v>
+      <c r="A585" s="2">
+        <v>584.0</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>1192</v>
@@ -13923,8 +13923,8 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" s="3">
-        <v>2353.0</v>
+      <c r="A586" s="2">
+        <v>585.0</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>1194</v>
@@ -13937,8 +13937,8 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="3">
-        <v>2354.0</v>
+      <c r="A587" s="2">
+        <v>586.0</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>1196</v>
@@ -13951,8 +13951,8 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" s="3">
-        <v>2355.0</v>
+      <c r="A588" s="2">
+        <v>587.0</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>1199</v>
@@ -13965,8 +13965,8 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="3">
-        <v>2356.0</v>
+      <c r="A589" s="2">
+        <v>588.0</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>1201</v>
@@ -13979,8 +13979,8 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" s="3">
-        <v>2357.0</v>
+      <c r="A590" s="2">
+        <v>589.0</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>1203</v>
@@ -13993,8 +13993,8 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" s="3">
-        <v>2358.0</v>
+      <c r="A591" s="2">
+        <v>590.0</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>1205</v>
@@ -14007,8 +14007,8 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="3">
-        <v>2359.0</v>
+      <c r="A592" s="2">
+        <v>591.0</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>1207</v>
@@ -14021,8 +14021,8 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" s="3">
-        <v>2360.0</v>
+      <c r="A593" s="2">
+        <v>592.0</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>1209</v>
@@ -14035,8 +14035,8 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="3">
-        <v>2361.0</v>
+      <c r="A594" s="2">
+        <v>593.0</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>1211</v>
@@ -14049,8 +14049,8 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="3">
-        <v>2362.0</v>
+      <c r="A595" s="2">
+        <v>594.0</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>1213</v>
@@ -14063,8 +14063,8 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="3">
-        <v>2363.0</v>
+      <c r="A596" s="2">
+        <v>595.0</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1215</v>
@@ -14077,8 +14077,8 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="3">
-        <v>2364.0</v>
+      <c r="A597" s="2">
+        <v>596.0</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>1217</v>
@@ -14091,8 +14091,8 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="3">
-        <v>2365.0</v>
+      <c r="A598" s="2">
+        <v>597.0</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>1219</v>
@@ -14105,8 +14105,8 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="3">
-        <v>2366.0</v>
+      <c r="A599" s="2">
+        <v>598.0</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>1221</v>
@@ -14119,8 +14119,8 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="3">
-        <v>2367.0</v>
+      <c r="A600" s="2">
+        <v>599.0</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>1223</v>
@@ -14133,8 +14133,8 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="3">
-        <v>2368.0</v>
+      <c r="A601" s="2">
+        <v>600.0</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>1225</v>
@@ -14147,8 +14147,8 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="3">
-        <v>2369.0</v>
+      <c r="A602" s="2">
+        <v>601.0</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>1227</v>
@@ -14161,8 +14161,8 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="3">
-        <v>2370.0</v>
+      <c r="A603" s="2">
+        <v>602.0</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>1229</v>
@@ -14175,8 +14175,8 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="3">
-        <v>2371.0</v>
+      <c r="A604" s="2">
+        <v>603.0</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>1231</v>
@@ -14189,8 +14189,8 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="3">
-        <v>2372.0</v>
+      <c r="A605" s="2">
+        <v>604.0</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>1233</v>
@@ -14203,8 +14203,8 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="3">
-        <v>2373.0</v>
+      <c r="A606" s="2">
+        <v>605.0</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>1235</v>
@@ -14217,8 +14217,8 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="3">
-        <v>2374.0</v>
+      <c r="A607" s="2">
+        <v>606.0</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>1237</v>
@@ -14231,8 +14231,8 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="3">
-        <v>2375.0</v>
+      <c r="A608" s="2">
+        <v>607.0</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>1239</v>
@@ -14245,8 +14245,8 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="3">
-        <v>2376.0</v>
+      <c r="A609" s="2">
+        <v>608.0</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>1241</v>
@@ -14259,8 +14259,8 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="3">
-        <v>2377.0</v>
+      <c r="A610" s="2">
+        <v>609.0</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>1243</v>
@@ -14273,8 +14273,8 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="3">
-        <v>2378.0</v>
+      <c r="A611" s="2">
+        <v>610.0</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>1245</v>
@@ -14287,8 +14287,8 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="3">
-        <v>2379.0</v>
+      <c r="A612" s="2">
+        <v>611.0</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>1248</v>
@@ -14301,8 +14301,8 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="3">
-        <v>2380.0</v>
+      <c r="A613" s="2">
+        <v>612.0</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>1250</v>
@@ -14315,8 +14315,8 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="3">
-        <v>2381.0</v>
+      <c r="A614" s="2">
+        <v>613.0</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>1252</v>
@@ -14329,8 +14329,8 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="3">
-        <v>2382.0</v>
+      <c r="A615" s="2">
+        <v>614.0</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>1254</v>
@@ -14343,8 +14343,8 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="3">
-        <v>2383.0</v>
+      <c r="A616" s="2">
+        <v>615.0</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>1256</v>
@@ -14357,8 +14357,8 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="3">
-        <v>2384.0</v>
+      <c r="A617" s="2">
+        <v>616.0</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>1258</v>
@@ -14371,8 +14371,8 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" s="3">
-        <v>2385.0</v>
+      <c r="A618" s="2">
+        <v>617.0</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>1260</v>
@@ -14385,8 +14385,8 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" s="3">
-        <v>2386.0</v>
+      <c r="A619" s="2">
+        <v>618.0</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>1262</v>
@@ -14399,8 +14399,8 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" s="3">
-        <v>2387.0</v>
+      <c r="A620" s="2">
+        <v>619.0</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>1264</v>
@@ -14413,8 +14413,8 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" s="3">
-        <v>2388.0</v>
+      <c r="A621" s="2">
+        <v>620.0</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>1266</v>
@@ -14427,8 +14427,8 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="3">
-        <v>2389.0</v>
+      <c r="A622" s="2">
+        <v>621.0</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>1268</v>
@@ -14441,8 +14441,8 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" s="3">
-        <v>2390.0</v>
+      <c r="A623" s="2">
+        <v>622.0</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>1270</v>
@@ -14455,8 +14455,8 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" s="3">
-        <v>2391.0</v>
+      <c r="A624" s="2">
+        <v>623.0</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>1272</v>
@@ -14469,8 +14469,8 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" s="3">
-        <v>2392.0</v>
+      <c r="A625" s="2">
+        <v>624.0</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>1274</v>
@@ -14483,8 +14483,8 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" s="3">
-        <v>2393.0</v>
+      <c r="A626" s="2">
+        <v>625.0</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>1276</v>
@@ -14497,8 +14497,8 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" s="3">
-        <v>2394.0</v>
+      <c r="A627" s="2">
+        <v>626.0</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>1278</v>
@@ -14511,8 +14511,8 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" s="3">
-        <v>2395.0</v>
+      <c r="A628" s="2">
+        <v>627.0</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>1280</v>
@@ -14525,8 +14525,8 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" s="3">
-        <v>2396.0</v>
+      <c r="A629" s="2">
+        <v>628.0</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>1282</v>
@@ -14539,8 +14539,8 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" s="3">
-        <v>2397.0</v>
+      <c r="A630" s="2">
+        <v>629.0</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>1284</v>
@@ -14553,8 +14553,8 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" s="3">
-        <v>2398.0</v>
+      <c r="A631" s="2">
+        <v>630.0</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>1286</v>
@@ -14567,8 +14567,8 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" s="3">
-        <v>2399.0</v>
+      <c r="A632" s="2">
+        <v>631.0</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>1288</v>
@@ -14581,8 +14581,8 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" s="3">
-        <v>119.0</v>
+      <c r="A633" s="2">
+        <v>632.0</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>1290</v>
@@ -14595,8 +14595,8 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" s="3">
-        <v>120.0</v>
+      <c r="A634" s="2">
+        <v>633.0</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>1292</v>
@@ -14609,8 +14609,8 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" s="3">
-        <v>121.0</v>
+      <c r="A635" s="2">
+        <v>634.0</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>1294</v>
@@ -14623,8 +14623,8 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" s="3">
-        <v>122.0</v>
+      <c r="A636" s="2">
+        <v>635.0</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>1296</v>
@@ -14637,8 +14637,8 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" s="3">
-        <v>123.0</v>
+      <c r="A637" s="2">
+        <v>636.0</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>1298</v>
@@ -14651,8 +14651,8 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" s="3">
-        <v>124.0</v>
+      <c r="A638" s="2">
+        <v>637.0</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>1300</v>
@@ -14665,8 +14665,8 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" s="3">
-        <v>125.0</v>
+      <c r="A639" s="2">
+        <v>638.0</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>1302</v>
@@ -14679,8 +14679,8 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="3">
-        <v>126.0</v>
+      <c r="A640" s="2">
+        <v>639.0</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>1304</v>
@@ -14693,8 +14693,8 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" s="3">
-        <v>127.0</v>
+      <c r="A641" s="2">
+        <v>640.0</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>1306</v>
@@ -14707,8 +14707,8 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" s="3">
-        <v>128.0</v>
+      <c r="A642" s="2">
+        <v>641.0</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>1308</v>
@@ -14721,8 +14721,8 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" s="3">
-        <v>129.0</v>
+      <c r="A643" s="2">
+        <v>642.0</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>1310</v>
@@ -14735,8 +14735,8 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" s="3">
-        <v>130.0</v>
+      <c r="A644" s="2">
+        <v>643.0</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>1312</v>
@@ -14749,8 +14749,8 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" s="3">
-        <v>131.0</v>
+      <c r="A645" s="2">
+        <v>644.0</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>1314</v>
@@ -14763,8 +14763,8 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" s="3">
-        <v>132.0</v>
+      <c r="A646" s="2">
+        <v>645.0</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>1316</v>
@@ -14777,8 +14777,8 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" s="3">
-        <v>133.0</v>
+      <c r="A647" s="2">
+        <v>646.0</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>1318</v>
@@ -14791,8 +14791,8 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" s="3">
-        <v>134.0</v>
+      <c r="A648" s="2">
+        <v>647.0</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>1320</v>
@@ -14805,8 +14805,8 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" s="3">
-        <v>135.0</v>
+      <c r="A649" s="2">
+        <v>648.0</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>1322</v>
@@ -14819,8 +14819,8 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" s="3">
-        <v>136.0</v>
+      <c r="A650" s="2">
+        <v>649.0</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>1324</v>
@@ -14833,8 +14833,8 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" s="3">
-        <v>137.0</v>
+      <c r="A651" s="2">
+        <v>650.0</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>1326</v>
@@ -14847,8 +14847,8 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" s="3">
-        <v>138.0</v>
+      <c r="A652" s="2">
+        <v>651.0</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>1328</v>
@@ -14861,8 +14861,8 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" s="3">
-        <v>139.0</v>
+      <c r="A653" s="2">
+        <v>652.0</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>1330</v>
@@ -14875,8 +14875,8 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" s="3">
-        <v>140.0</v>
+      <c r="A654" s="2">
+        <v>653.0</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>1332</v>
@@ -14889,8 +14889,8 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" s="3">
-        <v>141.0</v>
+      <c r="A655" s="2">
+        <v>654.0</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>1334</v>
@@ -14903,8 +14903,8 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" s="3">
-        <v>142.0</v>
+      <c r="A656" s="2">
+        <v>655.0</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>1336</v>
@@ -14917,8 +14917,8 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" s="3">
-        <v>143.0</v>
+      <c r="A657" s="2">
+        <v>656.0</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>1338</v>
@@ -14931,8 +14931,8 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" s="3">
-        <v>144.0</v>
+      <c r="A658" s="2">
+        <v>657.0</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>1340</v>
@@ -14945,8 +14945,8 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="3">
-        <v>145.0</v>
+      <c r="A659" s="2">
+        <v>658.0</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>1342</v>
@@ -14959,8 +14959,8 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="3">
-        <v>146.0</v>
+      <c r="A660" s="2">
+        <v>659.0</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>1344</v>
@@ -14973,8 +14973,8 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="3">
-        <v>147.0</v>
+      <c r="A661" s="2">
+        <v>660.0</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>1346</v>
@@ -14987,8 +14987,8 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="3">
-        <v>148.0</v>
+      <c r="A662" s="2">
+        <v>661.0</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>1348</v>
@@ -15001,8 +15001,8 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="3">
-        <v>149.0</v>
+      <c r="A663" s="2">
+        <v>662.0</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>1350</v>
@@ -15015,8 +15015,8 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="3">
-        <v>150.0</v>
+      <c r="A664" s="2">
+        <v>663.0</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>1352</v>
@@ -15029,8 +15029,8 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="3">
-        <v>151.0</v>
+      <c r="A665" s="2">
+        <v>664.0</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>1354</v>
@@ -15043,8 +15043,8 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="3">
-        <v>152.0</v>
+      <c r="A666" s="2">
+        <v>665.0</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>1356</v>
@@ -15057,8 +15057,8 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="3">
-        <v>153.0</v>
+      <c r="A667" s="2">
+        <v>666.0</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>1358</v>
@@ -15071,8 +15071,8 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="3">
-        <v>154.0</v>
+      <c r="A668" s="2">
+        <v>667.0</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>1360</v>
@@ -15085,8 +15085,8 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="3">
-        <v>155.0</v>
+      <c r="A669" s="2">
+        <v>668.0</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>1362</v>
@@ -15099,8 +15099,8 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="3">
-        <v>156.0</v>
+      <c r="A670" s="2">
+        <v>669.0</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>1364</v>
@@ -15113,8 +15113,8 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="3">
-        <v>157.0</v>
+      <c r="A671" s="2">
+        <v>670.0</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>1366</v>
@@ -15127,8 +15127,8 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="3">
-        <v>158.0</v>
+      <c r="A672" s="2">
+        <v>671.0</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>1368</v>
@@ -15141,8 +15141,8 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="3">
-        <v>159.0</v>
+      <c r="A673" s="2">
+        <v>672.0</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>1370</v>
@@ -15155,8 +15155,8 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="3">
-        <v>160.0</v>
+      <c r="A674" s="2">
+        <v>673.0</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>1372</v>
@@ -15169,8 +15169,8 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="3">
-        <v>161.0</v>
+      <c r="A675" s="2">
+        <v>674.0</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>1374</v>
@@ -15183,8 +15183,8 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="3">
-        <v>162.0</v>
+      <c r="A676" s="2">
+        <v>675.0</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>1376</v>
@@ -15197,8 +15197,8 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="3">
-        <v>163.0</v>
+      <c r="A677" s="2">
+        <v>676.0</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>1378</v>
@@ -15211,8 +15211,8 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="3">
-        <v>164.0</v>
+      <c r="A678" s="2">
+        <v>677.0</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>1380</v>
@@ -15225,8 +15225,8 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="3">
-        <v>165.0</v>
+      <c r="A679" s="2">
+        <v>678.0</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>1382</v>
@@ -15239,8 +15239,8 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="3">
-        <v>166.0</v>
+      <c r="A680" s="2">
+        <v>679.0</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>1384</v>
@@ -15253,8 +15253,8 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="3">
-        <v>167.0</v>
+      <c r="A681" s="2">
+        <v>680.0</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>1386</v>
@@ -15267,8 +15267,8 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="3">
-        <v>168.0</v>
+      <c r="A682" s="2">
+        <v>681.0</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>1388</v>
@@ -15281,8 +15281,8 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="3">
-        <v>169.0</v>
+      <c r="A683" s="2">
+        <v>682.0</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>1390</v>
@@ -15295,8 +15295,8 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="3">
-        <v>170.0</v>
+      <c r="A684" s="2">
+        <v>683.0</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>1392</v>
@@ -15309,8 +15309,8 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="3">
-        <v>171.0</v>
+      <c r="A685" s="2">
+        <v>684.0</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>1394</v>
@@ -15323,8 +15323,8 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="3">
-        <v>172.0</v>
+      <c r="A686" s="2">
+        <v>685.0</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>1396</v>
@@ -15337,8 +15337,8 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="3">
-        <v>173.0</v>
+      <c r="A687" s="2">
+        <v>686.0</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>1398</v>
@@ -15351,8 +15351,8 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="3">
-        <v>174.0</v>
+      <c r="A688" s="2">
+        <v>687.0</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>1400</v>
@@ -15365,8 +15365,8 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="3">
-        <v>175.0</v>
+      <c r="A689" s="2">
+        <v>688.0</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>1402</v>
@@ -15379,8 +15379,8 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="3">
-        <v>176.0</v>
+      <c r="A690" s="2">
+        <v>689.0</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>1404</v>
@@ -15393,8 +15393,8 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="3">
-        <v>177.0</v>
+      <c r="A691" s="2">
+        <v>690.0</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>1406</v>
@@ -15407,8 +15407,8 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="3">
-        <v>178.0</v>
+      <c r="A692" s="2">
+        <v>691.0</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>1408</v>
@@ -15421,8 +15421,8 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="3">
-        <v>179.0</v>
+      <c r="A693" s="2">
+        <v>692.0</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>1410</v>
@@ -15435,8 +15435,8 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="3">
-        <v>180.0</v>
+      <c r="A694" s="2">
+        <v>693.0</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>1412</v>
@@ -15449,8 +15449,8 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="3">
-        <v>181.0</v>
+      <c r="A695" s="2">
+        <v>694.0</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>1414</v>
@@ -15463,8 +15463,8 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="3">
-        <v>182.0</v>
+      <c r="A696" s="2">
+        <v>695.0</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>1416</v>
@@ -15477,8 +15477,8 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="3">
-        <v>183.0</v>
+      <c r="A697" s="2">
+        <v>696.0</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>1418</v>
@@ -15491,8 +15491,8 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="3">
-        <v>184.0</v>
+      <c r="A698" s="2">
+        <v>697.0</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>1420</v>
@@ -15505,8 +15505,8 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="3">
-        <v>185.0</v>
+      <c r="A699" s="2">
+        <v>698.0</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>1422</v>
@@ -15519,8 +15519,8 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="3">
-        <v>186.0</v>
+      <c r="A700" s="2">
+        <v>699.0</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>1424</v>
@@ -15533,8 +15533,8 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="3">
-        <v>187.0</v>
+      <c r="A701" s="2">
+        <v>700.0</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>1426</v>
@@ -15547,8 +15547,8 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="3">
-        <v>188.0</v>
+      <c r="A702" s="2">
+        <v>701.0</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>1428</v>
@@ -15561,8 +15561,8 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" s="3">
-        <v>189.0</v>
+      <c r="A703" s="2">
+        <v>702.0</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>1430</v>
@@ -15575,8 +15575,8 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" s="3">
-        <v>190.0</v>
+      <c r="A704" s="2">
+        <v>703.0</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>1432</v>
@@ -15589,8 +15589,8 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" s="3">
-        <v>191.0</v>
+      <c r="A705" s="2">
+        <v>704.0</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>1434</v>
@@ -15603,8 +15603,8 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" s="3">
-        <v>192.0</v>
+      <c r="A706" s="2">
+        <v>705.0</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>1436</v>
@@ -15617,8 +15617,8 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" s="3">
-        <v>193.0</v>
+      <c r="A707" s="2">
+        <v>706.0</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>1438</v>
@@ -15631,8 +15631,8 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" s="3">
-        <v>194.0</v>
+      <c r="A708" s="2">
+        <v>707.0</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>1440</v>
@@ -15645,8 +15645,8 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" s="3">
-        <v>271.0</v>
+      <c r="A709" s="2">
+        <v>708.0</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>1442</v>
@@ -15659,8 +15659,8 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" s="3">
-        <v>272.0</v>
+      <c r="A710" s="2">
+        <v>709.0</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>1444</v>
@@ -15673,8 +15673,8 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" s="3">
-        <v>273.0</v>
+      <c r="A711" s="2">
+        <v>710.0</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>1446</v>
@@ -15687,8 +15687,8 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" s="3">
-        <v>274.0</v>
+      <c r="A712" s="2">
+        <v>711.0</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>1448</v>
@@ -15701,8 +15701,8 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" s="3">
-        <v>275.0</v>
+      <c r="A713" s="2">
+        <v>712.0</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>1450</v>
@@ -15715,8 +15715,8 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" s="3">
-        <v>276.0</v>
+      <c r="A714" s="2">
+        <v>713.0</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>1452</v>
@@ -15729,8 +15729,8 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" s="3">
-        <v>277.0</v>
+      <c r="A715" s="2">
+        <v>714.0</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>1454</v>
@@ -15743,8 +15743,8 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" s="3">
-        <v>278.0</v>
+      <c r="A716" s="2">
+        <v>715.0</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>1456</v>
@@ -15757,8 +15757,8 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" s="3">
-        <v>279.0</v>
+      <c r="A717" s="2">
+        <v>716.0</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>1458</v>
@@ -15771,8 +15771,8 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" s="3">
-        <v>280.0</v>
+      <c r="A718" s="2">
+        <v>717.0</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>1460</v>
@@ -15785,8 +15785,8 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" s="3">
-        <v>281.0</v>
+      <c r="A719" s="2">
+        <v>718.0</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>1462</v>
@@ -15799,8 +15799,8 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" s="3">
-        <v>282.0</v>
+      <c r="A720" s="2">
+        <v>719.0</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>1464</v>
@@ -15813,8 +15813,8 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" s="3">
-        <v>283.0</v>
+      <c r="A721" s="2">
+        <v>720.0</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>1466</v>
@@ -15827,8 +15827,8 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" s="3">
-        <v>284.0</v>
+      <c r="A722" s="2">
+        <v>721.0</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>1468</v>
@@ -15841,8 +15841,8 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" s="3">
-        <v>285.0</v>
+      <c r="A723" s="2">
+        <v>722.0</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>1470</v>
@@ -15855,8 +15855,8 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" s="3">
-        <v>286.0</v>
+      <c r="A724" s="2">
+        <v>723.0</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>1472</v>
@@ -15869,8 +15869,8 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" s="3">
-        <v>287.0</v>
+      <c r="A725" s="2">
+        <v>724.0</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>1474</v>
@@ -15883,8 +15883,8 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" s="3">
-        <v>288.0</v>
+      <c r="A726" s="2">
+        <v>725.0</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>1476</v>
@@ -15897,8 +15897,8 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" s="3">
-        <v>289.0</v>
+      <c r="A727" s="2">
+        <v>726.0</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>727</v>
@@ -15911,8 +15911,8 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" s="3">
-        <v>290.0</v>
+      <c r="A728" s="2">
+        <v>727.0</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>1479</v>
@@ -15925,8 +15925,8 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" s="3">
-        <v>291.0</v>
+      <c r="A729" s="2">
+        <v>728.0</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>1481</v>
@@ -15939,8 +15939,8 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" s="3">
-        <v>292.0</v>
+      <c r="A730" s="2">
+        <v>729.0</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>1483</v>
@@ -15953,8 +15953,8 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" s="3">
-        <v>293.0</v>
+      <c r="A731" s="2">
+        <v>730.0</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>1485</v>
@@ -15967,8 +15967,8 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" s="3">
-        <v>294.0</v>
+      <c r="A732" s="2">
+        <v>731.0</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>1487</v>
@@ -15981,8 +15981,8 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" s="3">
-        <v>295.0</v>
+      <c r="A733" s="2">
+        <v>732.0</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>1489</v>
@@ -15995,8 +15995,8 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" s="3">
-        <v>296.0</v>
+      <c r="A734" s="2">
+        <v>733.0</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>1491</v>
@@ -16009,8 +16009,8 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" s="3">
-        <v>297.0</v>
+      <c r="A735" s="2">
+        <v>734.0</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>1493</v>
@@ -16023,8 +16023,8 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" s="3">
-        <v>298.0</v>
+      <c r="A736" s="2">
+        <v>735.0</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>1495</v>
@@ -16037,8 +16037,8 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" s="3">
-        <v>299.0</v>
+      <c r="A737" s="2">
+        <v>736.0</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>1497</v>
@@ -16051,8 +16051,8 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" s="3">
-        <v>300.0</v>
+      <c r="A738" s="2">
+        <v>737.0</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>1499</v>
@@ -16065,8 +16065,8 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" s="3">
-        <v>301.0</v>
+      <c r="A739" s="2">
+        <v>738.0</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>1501</v>
@@ -16079,8 +16079,8 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" s="3">
-        <v>302.0</v>
+      <c r="A740" s="2">
+        <v>739.0</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>1503</v>
@@ -16093,8 +16093,8 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" s="3">
-        <v>303.0</v>
+      <c r="A741" s="2">
+        <v>740.0</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>1505</v>
@@ -16107,8 +16107,8 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" s="3">
-        <v>304.0</v>
+      <c r="A742" s="2">
+        <v>741.0</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>1507</v>
@@ -16121,8 +16121,8 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" s="3">
-        <v>305.0</v>
+      <c r="A743" s="2">
+        <v>742.0</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>1509</v>
@@ -16135,8 +16135,8 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" s="3">
-        <v>306.0</v>
+      <c r="A744" s="2">
+        <v>743.0</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>1511</v>
@@ -16149,8 +16149,8 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" s="3">
-        <v>307.0</v>
+      <c r="A745" s="2">
+        <v>744.0</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>1513</v>
@@ -16163,8 +16163,8 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" s="3">
-        <v>308.0</v>
+      <c r="A746" s="2">
+        <v>745.0</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>1515</v>
@@ -16177,8 +16177,8 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" s="3">
-        <v>390.0</v>
+      <c r="A747" s="2">
+        <v>746.0</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>1517</v>
@@ -16191,8 +16191,8 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" s="3">
-        <v>391.0</v>
+      <c r="A748" s="2">
+        <v>747.0</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>1519</v>
@@ -16205,8 +16205,8 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" s="3">
-        <v>392.0</v>
+      <c r="A749" s="2">
+        <v>748.0</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>1521</v>
@@ -16219,8 +16219,8 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" s="3">
-        <v>393.0</v>
+      <c r="A750" s="2">
+        <v>749.0</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>1523</v>
@@ -16233,8 +16233,8 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" s="3">
-        <v>394.0</v>
+      <c r="A751" s="2">
+        <v>750.0</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>1525</v>
@@ -16247,8 +16247,8 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" s="3">
-        <v>395.0</v>
+      <c r="A752" s="2">
+        <v>751.0</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>1527</v>
@@ -16261,8 +16261,8 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" s="3">
-        <v>396.0</v>
+      <c r="A753" s="2">
+        <v>752.0</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>1529</v>
@@ -16275,8 +16275,8 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" s="3">
-        <v>397.0</v>
+      <c r="A754" s="2">
+        <v>753.0</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>1531</v>
@@ -16289,8 +16289,8 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" s="3">
-        <v>398.0</v>
+      <c r="A755" s="2">
+        <v>754.0</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>1533</v>
@@ -16303,8 +16303,8 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" s="3">
-        <v>399.0</v>
+      <c r="A756" s="2">
+        <v>755.0</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>1535</v>
@@ -16317,8 +16317,8 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" s="3">
-        <v>400.0</v>
+      <c r="A757" s="2">
+        <v>756.0</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>1537</v>
@@ -16331,8 +16331,8 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" s="3">
-        <v>401.0</v>
+      <c r="A758" s="2">
+        <v>757.0</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>1539</v>
@@ -16345,8 +16345,8 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" s="3">
-        <v>402.0</v>
+      <c r="A759" s="2">
+        <v>758.0</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>1541</v>
@@ -16359,8 +16359,8 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" s="3">
-        <v>403.0</v>
+      <c r="A760" s="2">
+        <v>759.0</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>1543</v>
@@ -16373,8 +16373,8 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" s="3">
-        <v>404.0</v>
+      <c r="A761" s="2">
+        <v>760.0</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>1545</v>
@@ -16387,8 +16387,8 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" s="3">
-        <v>405.0</v>
+      <c r="A762" s="2">
+        <v>761.0</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>1547</v>
@@ -16401,8 +16401,8 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" s="3">
-        <v>406.0</v>
+      <c r="A763" s="2">
+        <v>762.0</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>1549</v>
@@ -16415,8 +16415,8 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" s="3">
-        <v>407.0</v>
+      <c r="A764" s="2">
+        <v>763.0</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>1551</v>
@@ -16429,8 +16429,8 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" s="3">
-        <v>408.0</v>
+      <c r="A765" s="2">
+        <v>764.0</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>1553</v>
@@ -16443,8 +16443,8 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" s="3">
-        <v>487.0</v>
+      <c r="A766" s="2">
+        <v>765.0</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>1555</v>
@@ -16457,8 +16457,8 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" s="3">
-        <v>488.0</v>
+      <c r="A767" s="2">
+        <v>766.0</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>1557</v>
@@ -16471,8 +16471,8 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" s="3">
-        <v>489.0</v>
+      <c r="A768" s="2">
+        <v>767.0</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>1559</v>
@@ -16485,8 +16485,8 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" s="3">
-        <v>490.0</v>
+      <c r="A769" s="2">
+        <v>768.0</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>1561</v>
@@ -16499,8 +16499,8 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" s="3">
-        <v>491.0</v>
+      <c r="A770" s="2">
+        <v>769.0</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>1563</v>
@@ -16513,8 +16513,8 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" s="3">
-        <v>492.0</v>
+      <c r="A771" s="2">
+        <v>770.0</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>1565</v>
@@ -16527,8 +16527,8 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" s="3">
-        <v>493.0</v>
+      <c r="A772" s="2">
+        <v>771.0</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>1567</v>
@@ -16541,8 +16541,8 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" s="3">
-        <v>494.0</v>
+      <c r="A773" s="2">
+        <v>772.0</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>1569</v>
@@ -16555,8 +16555,8 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" s="3">
-        <v>495.0</v>
+      <c r="A774" s="2">
+        <v>773.0</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>1571</v>
@@ -16569,8 +16569,8 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" s="3">
-        <v>496.0</v>
+      <c r="A775" s="2">
+        <v>774.0</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>1573</v>
@@ -16583,8 +16583,8 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" s="3">
-        <v>497.0</v>
+      <c r="A776" s="2">
+        <v>775.0</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>1575</v>
@@ -16597,8 +16597,8 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" s="3">
-        <v>498.0</v>
+      <c r="A777" s="2">
+        <v>776.0</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>1577</v>
@@ -16611,8 +16611,8 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" s="3">
-        <v>499.0</v>
+      <c r="A778" s="2">
+        <v>777.0</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>1579</v>
@@ -16625,8 +16625,8 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" s="3">
-        <v>500.0</v>
+      <c r="A779" s="2">
+        <v>778.0</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>1581</v>
@@ -16639,8 +16639,8 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" s="3">
-        <v>501.0</v>
+      <c r="A780" s="2">
+        <v>779.0</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>1583</v>
@@ -16653,8 +16653,8 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" s="3">
-        <v>502.0</v>
+      <c r="A781" s="2">
+        <v>780.0</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>1585</v>
@@ -16667,8 +16667,8 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" s="3">
-        <v>503.0</v>
+      <c r="A782" s="2">
+        <v>781.0</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>1587</v>
@@ -16681,8 +16681,8 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" s="3">
-        <v>504.0</v>
+      <c r="A783" s="2">
+        <v>782.0</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>1589</v>
@@ -16695,8 +16695,8 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" s="3">
-        <v>505.0</v>
+      <c r="A784" s="2">
+        <v>783.0</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>1591</v>
@@ -16709,8 +16709,8 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" s="3">
-        <v>506.0</v>
+      <c r="A785" s="2">
+        <v>784.0</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>1593</v>
@@ -16723,8 +16723,8 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" s="3">
-        <v>507.0</v>
+      <c r="A786" s="2">
+        <v>785.0</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>1595</v>
@@ -16737,8 +16737,8 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" s="3">
-        <v>508.0</v>
+      <c r="A787" s="2">
+        <v>786.0</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>1597</v>
@@ -16751,8 +16751,8 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" s="3">
-        <v>509.0</v>
+      <c r="A788" s="2">
+        <v>787.0</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>1599</v>
@@ -16765,8 +16765,8 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" s="3">
-        <v>510.0</v>
+      <c r="A789" s="2">
+        <v>788.0</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>1601</v>
@@ -16779,8 +16779,8 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" s="3">
-        <v>511.0</v>
+      <c r="A790" s="2">
+        <v>789.0</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>750</v>
@@ -16793,8 +16793,8 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" s="3">
-        <v>512.0</v>
+      <c r="A791" s="2">
+        <v>790.0</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>1604</v>
@@ -16807,8 +16807,8 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" s="3">
-        <v>513.0</v>
+      <c r="A792" s="2">
+        <v>791.0</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>1606</v>
@@ -16821,8 +16821,8 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" s="3">
-        <v>514.0</v>
+      <c r="A793" s="2">
+        <v>792.0</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>1608</v>
@@ -16835,8 +16835,8 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" s="3">
-        <v>515.0</v>
+      <c r="A794" s="2">
+        <v>793.0</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>1610</v>
@@ -16849,8 +16849,8 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" s="3">
-        <v>516.0</v>
+      <c r="A795" s="2">
+        <v>794.0</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>1612</v>
@@ -16863,8 +16863,8 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" s="3">
-        <v>517.0</v>
+      <c r="A796" s="2">
+        <v>795.0</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>762</v>
@@ -16877,8 +16877,8 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" s="3">
-        <v>518.0</v>
+      <c r="A797" s="2">
+        <v>796.0</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>764</v>
@@ -16891,8 +16891,8 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" s="3">
-        <v>519.0</v>
+      <c r="A798" s="2">
+        <v>797.0</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>774</v>
@@ -16905,8 +16905,8 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" s="3">
-        <v>520.0</v>
+      <c r="A799" s="2">
+        <v>798.0</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>1616</v>
@@ -16919,8 +16919,8 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" s="3">
-        <v>521.0</v>
+      <c r="A800" s="2">
+        <v>799.0</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>782</v>
@@ -16933,8 +16933,8 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" s="3">
-        <v>522.0</v>
+      <c r="A801" s="2">
+        <v>800.0</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>784</v>
@@ -16947,8 +16947,8 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" s="3">
-        <v>523.0</v>
+      <c r="A802" s="2">
+        <v>801.0</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>1620</v>
@@ -16961,8 +16961,8 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" s="3">
-        <v>524.0</v>
+      <c r="A803" s="2">
+        <v>802.0</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>790</v>
@@ -16975,8 +16975,8 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" s="3">
-        <v>525.0</v>
+      <c r="A804" s="2">
+        <v>803.0</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>943</v>
@@ -16989,8 +16989,8 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" s="3">
-        <v>526.0</v>
+      <c r="A805" s="2">
+        <v>804.0</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>946</v>
@@ -17003,8 +17003,8 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" s="3">
-        <v>527.0</v>
+      <c r="A806" s="2">
+        <v>805.0</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>1625</v>
@@ -17017,8 +17017,8 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" s="3">
-        <v>528.0</v>
+      <c r="A807" s="2">
+        <v>806.0</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>954</v>
@@ -17031,8 +17031,8 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" s="3">
-        <v>529.0</v>
+      <c r="A808" s="2">
+        <v>807.0</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>1628</v>
@@ -17045,8 +17045,8 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" s="3">
-        <v>530.0</v>
+      <c r="A809" s="2">
+        <v>808.0</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>960</v>
@@ -17059,8 +17059,8 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" s="3">
-        <v>531.0</v>
+      <c r="A810" s="2">
+        <v>809.0</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>1631</v>
@@ -17073,8 +17073,8 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" s="3">
-        <v>532.0</v>
+      <c r="A811" s="2">
+        <v>810.0</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>964</v>
@@ -17087,8 +17087,8 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" s="3">
-        <v>533.0</v>
+      <c r="A812" s="2">
+        <v>811.0</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>1634</v>
@@ -17101,8 +17101,8 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" s="3">
-        <v>534.0</v>
+      <c r="A813" s="2">
+        <v>812.0</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>968</v>
@@ -17115,8 +17115,8 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" s="3">
-        <v>535.0</v>
+      <c r="A814" s="2">
+        <v>813.0</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>970</v>
@@ -17129,8 +17129,8 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" s="3">
-        <v>536.0</v>
+      <c r="A815" s="2">
+        <v>814.0</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>974</v>
@@ -17143,8 +17143,8 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" s="3">
-        <v>537.0</v>
+      <c r="A816" s="2">
+        <v>815.0</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>1639</v>
@@ -17157,8 +17157,8 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" s="3">
-        <v>538.0</v>
+      <c r="A817" s="2">
+        <v>816.0</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>978</v>
@@ -17171,8 +17171,8 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" s="3">
-        <v>539.0</v>
+      <c r="A818" s="2">
+        <v>817.0</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>1642</v>
@@ -17185,8 +17185,8 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" s="3">
-        <v>540.0</v>
+      <c r="A819" s="2">
+        <v>818.0</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>982</v>
@@ -17199,8 +17199,8 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" s="3">
-        <v>541.0</v>
+      <c r="A820" s="2">
+        <v>819.0</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>1645</v>
@@ -17213,8 +17213,8 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" s="3">
-        <v>542.0</v>
+      <c r="A821" s="2">
+        <v>820.0</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>986</v>
@@ -17227,8 +17227,8 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" s="3">
-        <v>543.0</v>
+      <c r="A822" s="2">
+        <v>821.0</v>
       </c>
       <c r="B822" s="3" t="s">
         <v>1648</v>
@@ -17241,8 +17241,8 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" s="3">
-        <v>544.0</v>
+      <c r="A823" s="2">
+        <v>822.0</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>994</v>
@@ -17255,8 +17255,8 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" s="3">
-        <v>545.0</v>
+      <c r="A824" s="2">
+        <v>823.0</v>
       </c>
       <c r="B824" s="3" t="s">
         <v>997</v>
@@ -17269,8 +17269,8 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" s="3">
-        <v>546.0</v>
+      <c r="A825" s="2">
+        <v>824.0</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>999</v>
@@ -17283,8 +17283,8 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" s="3">
-        <v>547.0</v>
+      <c r="A826" s="2">
+        <v>825.0</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>1003</v>
@@ -17297,8 +17297,8 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" s="3">
-        <v>548.0</v>
+      <c r="A827" s="2">
+        <v>826.0</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>1007</v>
@@ -17311,8 +17311,8 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" s="3">
-        <v>549.0</v>
+      <c r="A828" s="2">
+        <v>827.0</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>1009</v>
@@ -17325,8 +17325,8 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" s="3">
-        <v>550.0</v>
+      <c r="A829" s="2">
+        <v>828.0</v>
       </c>
       <c r="B829" s="3" t="s">
         <v>1011</v>
@@ -17339,8 +17339,8 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" s="3">
-        <v>551.0</v>
+      <c r="A830" s="2">
+        <v>829.0</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>1013</v>
@@ -17353,8 +17353,8 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="3">
-        <v>552.0</v>
+      <c r="A831" s="2">
+        <v>830.0</v>
       </c>
       <c r="B831" s="3" t="s">
         <v>1015</v>
@@ -17367,8 +17367,8 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="3">
-        <v>553.0</v>
+      <c r="A832" s="2">
+        <v>831.0</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>1017</v>
@@ -17381,8 +17381,8 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="3">
-        <v>554.0</v>
+      <c r="A833" s="2">
+        <v>832.0</v>
       </c>
       <c r="B833" s="3" t="s">
         <v>1019</v>
@@ -17395,8 +17395,8 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="3">
-        <v>555.0</v>
+      <c r="A834" s="2">
+        <v>833.0</v>
       </c>
       <c r="B834" s="3" t="s">
         <v>1025</v>
@@ -17409,8 +17409,8 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="3">
-        <v>556.0</v>
+      <c r="A835" s="2">
+        <v>834.0</v>
       </c>
       <c r="B835" s="3" t="s">
         <v>1023</v>
@@ -17423,8 +17423,8 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="3">
-        <v>557.0</v>
+      <c r="A836" s="2">
+        <v>835.0</v>
       </c>
       <c r="B836" s="3" t="s">
         <v>1662</v>
@@ -17437,8 +17437,8 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="3">
-        <v>558.0</v>
+      <c r="A837" s="2">
+        <v>836.0</v>
       </c>
       <c r="B837" s="3" t="s">
         <v>1664</v>
@@ -17451,8 +17451,8 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="3">
-        <v>559.0</v>
+      <c r="A838" s="2">
+        <v>837.0</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>1031</v>
@@ -17465,8 +17465,8 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="3">
-        <v>560.0</v>
+      <c r="A839" s="2">
+        <v>838.0</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>1667</v>
@@ -17479,8 +17479,8 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" s="3">
-        <v>561.0</v>
+      <c r="A840" s="2">
+        <v>839.0</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>1669</v>
@@ -17493,8 +17493,8 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="3">
-        <v>562.0</v>
+      <c r="A841" s="2">
+        <v>840.0</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>1041</v>
@@ -17507,8 +17507,8 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" s="3">
-        <v>563.0</v>
+      <c r="A842" s="2">
+        <v>841.0</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>1046</v>
@@ -17521,8 +17521,8 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="3">
-        <v>564.0</v>
+      <c r="A843" s="2">
+        <v>842.0</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>1673</v>
@@ -17535,8 +17535,8 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="3">
-        <v>565.0</v>
+      <c r="A844" s="2">
+        <v>843.0</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>1052</v>
@@ -17549,8 +17549,8 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="3">
-        <v>566.0</v>
+      <c r="A845" s="2">
+        <v>844.0</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>1675</v>
@@ -17563,8 +17563,8 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="3">
-        <v>567.0</v>
+      <c r="A846" s="2">
+        <v>845.0</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>1058</v>
@@ -17577,8 +17577,8 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="3">
-        <v>568.0</v>
+      <c r="A847" s="2">
+        <v>846.0</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>1678</v>
@@ -17591,8 +17591,8 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="3">
-        <v>569.0</v>
+      <c r="A848" s="2">
+        <v>847.0</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>1062</v>
@@ -17605,8 +17605,8 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="3">
-        <v>570.0</v>
+      <c r="A849" s="2">
+        <v>848.0</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>1681</v>
@@ -17619,8 +17619,8 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="3">
-        <v>571.0</v>
+      <c r="A850" s="2">
+        <v>849.0</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>1683</v>
@@ -17633,8 +17633,8 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="3">
-        <v>572.0</v>
+      <c r="A851" s="2">
+        <v>850.0</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>1685</v>
@@ -17647,8 +17647,8 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" s="3">
-        <v>573.0</v>
+      <c r="A852" s="2">
+        <v>851.0</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>1687</v>
@@ -17661,8 +17661,8 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" s="3">
-        <v>574.0</v>
+      <c r="A853" s="2">
+        <v>852.0</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>1689</v>
@@ -17675,8 +17675,8 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" s="3">
-        <v>575.0</v>
+      <c r="A854" s="2">
+        <v>853.0</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>1691</v>
@@ -17689,8 +17689,8 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" s="3">
-        <v>576.0</v>
+      <c r="A855" s="2">
+        <v>854.0</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>1078</v>
@@ -17703,8 +17703,8 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" s="3">
-        <v>577.0</v>
+      <c r="A856" s="2">
+        <v>855.0</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>1080</v>
@@ -17717,8 +17717,8 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" s="3">
-        <v>578.0</v>
+      <c r="A857" s="2">
+        <v>856.0</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>1695</v>
@@ -17731,8 +17731,8 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" s="3">
-        <v>579.0</v>
+      <c r="A858" s="2">
+        <v>857.0</v>
       </c>
       <c r="B858" s="3" t="s">
         <v>1084</v>
@@ -17745,8 +17745,8 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" s="3">
-        <v>580.0</v>
+      <c r="A859" s="2">
+        <v>858.0</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>1086</v>
@@ -17759,8 +17759,8 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" s="3">
-        <v>581.0</v>
+      <c r="A860" s="2">
+        <v>859.0</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>1698</v>
@@ -17773,8 +17773,8 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" s="3">
-        <v>582.0</v>
+      <c r="A861" s="2">
+        <v>860.0</v>
       </c>
       <c r="B861" s="3" t="s">
         <v>1094</v>
@@ -17787,8 +17787,8 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" s="3">
-        <v>583.0</v>
+      <c r="A862" s="2">
+        <v>861.0</v>
       </c>
       <c r="B862" s="3" t="s">
         <v>1097</v>
@@ -17801,8 +17801,8 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" s="3">
-        <v>584.0</v>
+      <c r="A863" s="2">
+        <v>862.0</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>1103</v>
@@ -17815,8 +17815,8 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" s="3">
-        <v>585.0</v>
+      <c r="A864" s="2">
+        <v>863.0</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>1105</v>
@@ -17829,8 +17829,8 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" s="3">
-        <v>586.0</v>
+      <c r="A865" s="2">
+        <v>864.0</v>
       </c>
       <c r="B865" s="3" t="s">
         <v>1109</v>
@@ -17843,8 +17843,8 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" s="3">
-        <v>587.0</v>
+      <c r="A866" s="2">
+        <v>865.0</v>
       </c>
       <c r="B866" s="3" t="s">
         <v>1111</v>
@@ -17857,8 +17857,8 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" s="3">
-        <v>588.0</v>
+      <c r="A867" s="2">
+        <v>866.0</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>1113</v>
@@ -17871,8 +17871,8 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" s="3">
-        <v>589.0</v>
+      <c r="A868" s="2">
+        <v>867.0</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>1115</v>
@@ -17885,8 +17885,8 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" s="3">
-        <v>590.0</v>
+      <c r="A869" s="2">
+        <v>868.0</v>
       </c>
       <c r="B869" s="3" t="s">
         <v>1117</v>
@@ -17899,8 +17899,8 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" s="3">
-        <v>591.0</v>
+      <c r="A870" s="2">
+        <v>869.0</v>
       </c>
       <c r="B870" s="3" t="s">
         <v>1119</v>
@@ -17913,8 +17913,8 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" s="3">
-        <v>592.0</v>
+      <c r="A871" s="2">
+        <v>870.0</v>
       </c>
       <c r="B871" s="3" t="s">
         <v>1121</v>
@@ -17927,8 +17927,8 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" s="3">
-        <v>593.0</v>
+      <c r="A872" s="2">
+        <v>871.0</v>
       </c>
       <c r="B872" s="3" t="s">
         <v>1125</v>
@@ -17941,8 +17941,8 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" s="3">
-        <v>594.0</v>
+      <c r="A873" s="2">
+        <v>872.0</v>
       </c>
       <c r="B873" s="3" t="s">
         <v>1127</v>
@@ -17955,8 +17955,8 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" s="3">
-        <v>595.0</v>
+      <c r="A874" s="2">
+        <v>873.0</v>
       </c>
       <c r="B874" s="3" t="s">
         <v>1711</v>
@@ -17969,8 +17969,8 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" s="3">
-        <v>596.0</v>
+      <c r="A875" s="2">
+        <v>874.0</v>
       </c>
       <c r="B875" s="3" t="s">
         <v>1131</v>
@@ -17983,8 +17983,8 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" s="3">
-        <v>597.0</v>
+      <c r="A876" s="2">
+        <v>875.0</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>1133</v>
@@ -17997,8 +17997,8 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" s="3">
-        <v>598.0</v>
+      <c r="A877" s="2">
+        <v>876.0</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>1135</v>
@@ -18011,8 +18011,8 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" s="3">
-        <v>599.0</v>
+      <c r="A878" s="2">
+        <v>877.0</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>1716</v>
@@ -18025,8 +18025,8 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" s="3">
-        <v>600.0</v>
+      <c r="A879" s="2">
+        <v>878.0</v>
       </c>
       <c r="B879" s="3" t="s">
         <v>1718</v>
@@ -18039,8 +18039,8 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" s="3">
-        <v>601.0</v>
+      <c r="A880" s="2">
+        <v>879.0</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>1720</v>
@@ -18053,8 +18053,8 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" s="3">
-        <v>602.0</v>
+      <c r="A881" s="2">
+        <v>880.0</v>
       </c>
       <c r="B881" s="3" t="s">
         <v>1722</v>
@@ -18067,8 +18067,8 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" s="3">
-        <v>603.0</v>
+      <c r="A882" s="2">
+        <v>881.0</v>
       </c>
       <c r="B882" s="3" t="s">
         <v>1724</v>
@@ -18081,8 +18081,8 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" s="3">
-        <v>604.0</v>
+      <c r="A883" s="2">
+        <v>882.0</v>
       </c>
       <c r="B883" s="3" t="s">
         <v>1156</v>
@@ -18095,8 +18095,8 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" s="3">
-        <v>605.0</v>
+      <c r="A884" s="2">
+        <v>883.0</v>
       </c>
       <c r="B884" s="3" t="s">
         <v>1727</v>
@@ -18109,8 +18109,8 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" s="3">
-        <v>606.0</v>
+      <c r="A885" s="2">
+        <v>884.0</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>1729</v>
@@ -18123,8 +18123,8 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" s="3">
-        <v>607.0</v>
+      <c r="A886" s="2">
+        <v>885.0</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>1731</v>
@@ -18137,8 +18137,8 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" s="3">
-        <v>608.0</v>
+      <c r="A887" s="2">
+        <v>886.0</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>1733</v>
@@ -18151,8 +18151,8 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" s="3">
-        <v>609.0</v>
+      <c r="A888" s="2">
+        <v>887.0</v>
       </c>
       <c r="B888" s="3" t="s">
         <v>1174</v>
@@ -18165,8 +18165,8 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" s="3">
-        <v>610.0</v>
+      <c r="A889" s="2">
+        <v>888.0</v>
       </c>
       <c r="B889" s="3" t="s">
         <v>1176</v>
@@ -18179,8 +18179,8 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" s="3">
-        <v>611.0</v>
+      <c r="A890" s="2">
+        <v>889.0</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>1736</v>
@@ -18193,8 +18193,8 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" s="3">
-        <v>612.0</v>
+      <c r="A891" s="2">
+        <v>890.0</v>
       </c>
       <c r="B891" s="3" t="s">
         <v>1164</v>
@@ -18207,8 +18207,8 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" s="3">
-        <v>613.0</v>
+      <c r="A892" s="2">
+        <v>891.0</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>1739</v>
@@ -18221,8 +18221,8 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" s="3">
-        <v>614.0</v>
+      <c r="A893" s="2">
+        <v>892.0</v>
       </c>
       <c r="B893" s="3" t="s">
         <v>1741</v>
@@ -18235,8 +18235,8 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" s="3">
-        <v>615.0</v>
+      <c r="A894" s="2">
+        <v>893.0</v>
       </c>
       <c r="B894" s="3" t="s">
         <v>1743</v>
@@ -18249,8 +18249,8 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" s="3">
-        <v>616.0</v>
+      <c r="A895" s="2">
+        <v>894.0</v>
       </c>
       <c r="B895" s="3" t="s">
         <v>1180</v>
@@ -18263,8 +18263,8 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" s="3">
-        <v>617.0</v>
+      <c r="A896" s="2">
+        <v>895.0</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>1182</v>
@@ -18277,8 +18277,8 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" s="3">
-        <v>618.0</v>
+      <c r="A897" s="2">
+        <v>896.0</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>1184</v>
@@ -18291,8 +18291,8 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" s="3">
-        <v>619.0</v>
+      <c r="A898" s="2">
+        <v>897.0</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>1186</v>
@@ -18305,8 +18305,8 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" s="3">
-        <v>620.0</v>
+      <c r="A899" s="2">
+        <v>898.0</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>1203</v>
@@ -18319,8 +18319,8 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" s="3">
-        <v>621.0</v>
+      <c r="A900" s="2">
+        <v>899.0</v>
       </c>
       <c r="B900" s="3" t="s">
         <v>1205</v>
@@ -18333,8 +18333,8 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" s="3">
-        <v>622.0</v>
+      <c r="A901" s="2">
+        <v>900.0</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>1207</v>
@@ -18347,8 +18347,8 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" s="3">
-        <v>623.0</v>
+      <c r="A902" s="2">
+        <v>901.0</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>1750</v>
@@ -18361,8 +18361,8 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" s="3">
-        <v>624.0</v>
+      <c r="A903" s="2">
+        <v>902.0</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>1211</v>
@@ -18375,8 +18375,8 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" s="3">
-        <v>625.0</v>
+      <c r="A904" s="2">
+        <v>903.0</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>1753</v>
@@ -18389,8 +18389,8 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" s="3">
-        <v>626.0</v>
+      <c r="A905" s="2">
+        <v>904.0</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>1755</v>
@@ -18403,8 +18403,8 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" s="3">
-        <v>627.0</v>
+      <c r="A906" s="2">
+        <v>905.0</v>
       </c>
       <c r="B906" s="3" t="s">
         <v>1757</v>
@@ -18417,8 +18417,8 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" s="3">
-        <v>628.0</v>
+      <c r="A907" s="2">
+        <v>906.0</v>
       </c>
       <c r="B907" s="3" t="s">
         <v>1217</v>
@@ -18431,8 +18431,8 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" s="3">
-        <v>629.0</v>
+      <c r="A908" s="2">
+        <v>907.0</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>1760</v>
@@ -18445,8 +18445,8 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" s="3">
-        <v>630.0</v>
+      <c r="A909" s="2">
+        <v>908.0</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>1762</v>
@@ -18459,8 +18459,8 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" s="3">
-        <v>631.0</v>
+      <c r="A910" s="2">
+        <v>909.0</v>
       </c>
       <c r="B910" s="3" t="s">
         <v>1764</v>
@@ -18473,8 +18473,8 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" s="3">
-        <v>632.0</v>
+      <c r="A911" s="2">
+        <v>910.0</v>
       </c>
       <c r="B911" s="3" t="s">
         <v>1231</v>
@@ -18487,8 +18487,8 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" s="3">
-        <v>633.0</v>
+      <c r="A912" s="2">
+        <v>911.0</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>1767</v>
@@ -18501,8 +18501,8 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" s="3">
-        <v>634.0</v>
+      <c r="A913" s="2">
+        <v>912.0</v>
       </c>
       <c r="B913" s="3" t="s">
         <v>1769</v>
@@ -18515,8 +18515,8 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" s="3">
-        <v>635.0</v>
+      <c r="A914" s="2">
+        <v>913.0</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>1771</v>
@@ -18529,8 +18529,8 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" s="3">
-        <v>636.0</v>
+      <c r="A915" s="2">
+        <v>914.0</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>1773</v>
@@ -18543,8 +18543,8 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" s="3">
-        <v>637.0</v>
+      <c r="A916" s="2">
+        <v>915.0</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>1775</v>
@@ -18557,8 +18557,8 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" s="3">
-        <v>638.0</v>
+      <c r="A917" s="2">
+        <v>916.0</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>1777</v>
@@ -18571,8 +18571,8 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" s="3">
-        <v>639.0</v>
+      <c r="A918" s="2">
+        <v>917.0</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>1779</v>
@@ -18585,8 +18585,8 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" s="3">
-        <v>640.0</v>
+      <c r="A919" s="2">
+        <v>918.0</v>
       </c>
       <c r="B919" s="3" t="s">
         <v>1781</v>
@@ -18599,8 +18599,8 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" s="3">
-        <v>641.0</v>
+      <c r="A920" s="2">
+        <v>919.0</v>
       </c>
       <c r="B920" s="3" t="s">
         <v>1250</v>
@@ -18613,8 +18613,8 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" s="3">
-        <v>642.0</v>
+      <c r="A921" s="2">
+        <v>920.0</v>
       </c>
       <c r="B921" s="3" t="s">
         <v>1783</v>
@@ -18627,8 +18627,8 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" s="3">
-        <v>643.0</v>
+      <c r="A922" s="2">
+        <v>921.0</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>1785</v>
@@ -18641,8 +18641,8 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" s="3">
-        <v>644.0</v>
+      <c r="A923" s="2">
+        <v>922.0</v>
       </c>
       <c r="B923" s="3" t="s">
         <v>1787</v>
@@ -18655,8 +18655,8 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" s="3">
-        <v>645.0</v>
+      <c r="A924" s="2">
+        <v>923.0</v>
       </c>
       <c r="B924" s="3" t="s">
         <v>1789</v>
@@ -18669,8 +18669,8 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" s="3">
-        <v>646.0</v>
+      <c r="A925" s="2">
+        <v>924.0</v>
       </c>
       <c r="B925" s="3" t="s">
         <v>1791</v>
@@ -18683,8 +18683,8 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" s="3">
-        <v>647.0</v>
+      <c r="A926" s="2">
+        <v>925.0</v>
       </c>
       <c r="B926" s="3" t="s">
         <v>1793</v>
@@ -18697,8 +18697,8 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" s="3">
-        <v>648.0</v>
+      <c r="A927" s="2">
+        <v>926.0</v>
       </c>
       <c r="B927" s="3" t="s">
         <v>1795</v>
@@ -18711,8 +18711,8 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" s="3">
-        <v>649.0</v>
+      <c r="A928" s="2">
+        <v>927.0</v>
       </c>
       <c r="B928" s="3" t="s">
         <v>1797</v>
@@ -18725,8 +18725,8 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" s="3">
-        <v>650.0</v>
+      <c r="A929" s="2">
+        <v>928.0</v>
       </c>
       <c r="B929" s="3" t="s">
         <v>1799</v>
@@ -18739,8 +18739,8 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" s="3">
-        <v>651.0</v>
+      <c r="A930" s="2">
+        <v>929.0</v>
       </c>
       <c r="B930" s="3" t="s">
         <v>1801</v>
@@ -18753,8 +18753,8 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" s="3">
-        <v>652.0</v>
+      <c r="A931" s="2">
+        <v>930.0</v>
       </c>
       <c r="B931" s="3" t="s">
         <v>1803</v>
@@ -18767,8 +18767,8 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" s="3">
-        <v>653.0</v>
+      <c r="A932" s="2">
+        <v>931.0</v>
       </c>
       <c r="B932" s="3" t="s">
         <v>1284</v>
@@ -18781,8 +18781,8 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" s="3">
-        <v>654.0</v>
+      <c r="A933" s="2">
+        <v>932.0</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>1806</v>
@@ -18795,8 +18795,8 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" s="3">
-        <v>655.0</v>
+      <c r="A934" s="2">
+        <v>933.0</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>1808</v>
@@ -18809,8 +18809,8 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" s="3">
-        <v>656.0</v>
+      <c r="A935" s="2">
+        <v>934.0</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>1810</v>
@@ -18823,8 +18823,8 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" s="3">
-        <v>657.0</v>
+      <c r="A936" s="2">
+        <v>935.0</v>
       </c>
       <c r="B936" s="3" t="s">
         <v>1812</v>
